--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503785.813291061</v>
+        <v>505691.0943900946</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2686686.291813793</v>
+        <v>2686686.291813794</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18996592.31280109</v>
+        <v>18996592.31280108</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5109479.904452552</v>
+        <v>5109479.904452551</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>53.11843961684003</v>
+      </c>
+      <c r="W2" t="n">
         <v>60.30703862039058</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>60.30703862039058</v>
-      </c>
-      <c r="V2" t="n">
-        <v>60.30703862039058</v>
-      </c>
-      <c r="W2" t="n">
-        <v>53.11843961684003</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,76 +735,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="C3" t="n">
+        <v>53.11843961684003</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>60.30703862039058</v>
       </c>
-      <c r="D3" t="n">
+      <c r="Y3" t="n">
         <v>60.30703862039058</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>60.30703862039058</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>53.11843961684003</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>12.5728903445869</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,16 +856,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>9.851449609480397</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>53.11843961684003</v>
       </c>
       <c r="D5" t="n">
-        <v>53.11843961684003</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>60.30703862039058</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="Y5" t="n">
         <v>60.30703862039058</v>
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>53.11843961684003</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>53.11843961684003</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>12.5728903445869</v>
       </c>
       <c r="I7" t="n">
         <v>60.30703862039058</v>
@@ -1078,7 +1078,7 @@
         <v>60.30703862039058</v>
       </c>
       <c r="K7" t="n">
-        <v>12.5728903445869</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1136,55 +1136,55 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>60.30703862039058</v>
       </c>
-      <c r="E8" t="n">
-        <v>53.11843961684003</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>60.30703862039058</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>53.11843961684003</v>
       </c>
     </row>
     <row r="9">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>53.11843961684003</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1230,52 +1230,52 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>60.30703862039058</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>60.30703862039058</v>
-      </c>
-      <c r="S9" t="n">
-        <v>53.11843961684003</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>60.30703862039058</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>53.11843961684003</v>
+      </c>
+      <c r="H11" t="n">
         <v>60.30703862039058</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>53.11843961684003</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>60.30703862039058</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>60.30703862039058</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>53.11843961684003</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="T12" t="n">
-        <v>53.11843961684003</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="U12" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>14.27562478896839</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>9.989162082993888</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>24.26478687196227</v>
       </c>
     </row>
     <row r="14">
@@ -1604,73 +1604,73 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="F14" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>53.11843961684003</v>
-      </c>
-      <c r="H14" t="n">
-        <v>60.30703862039058</v>
-      </c>
-      <c r="I14" t="n">
-        <v>60.30703862039058</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,76 +1683,76 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>53.11843961684003</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>60.30703862039058</v>
       </c>
-      <c r="C15" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>60.30703862039058</v>
       </c>
-      <c r="D15" t="n">
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>60.30703862039058</v>
-      </c>
-      <c r="E15" t="n">
-        <v>53.11843961684003</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1777,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>14.27562478896839</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>9.989162082993888</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>24.26478687196227</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>53.11843961684003</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1929,67 +1929,67 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>60.30703862039058</v>
       </c>
-      <c r="F18" t="n">
+      <c r="S18" t="n">
+        <v>53.11843961684003</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>60.30703862039058</v>
-      </c>
-      <c r="G18" t="n">
-        <v>60.30703862039058</v>
-      </c>
-      <c r="H18" t="n">
-        <v>53.11843961684003</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2002,52 +2002,52 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>24.26478687196227</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>24.26478687196227</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>60.30703862039058</v>
-      </c>
-      <c r="G19" t="n">
-        <v>60.30703862039058</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>60.30703862039058</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>303.564719702157</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>303.564719702157</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>132.3126028717942</v>
+        <v>303.5647197021571</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>303.5647197021571</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>45.31546230094418</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,19 +2126,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>135.0672022418656</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.0643428127157</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>303.5647197021571</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>303.564719702157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,25 +2160,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>2.157292605448395</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.2174395463092</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>111.01779988379</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>85.05580262037721</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>92.32996246467216</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>169.3413346670932</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.656547423188</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9330875009155</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>171.8217412496902</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>205.185902733134</v>
       </c>
       <c r="U22" t="n">
-        <v>205.185902733134</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2324,10 +2324,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>303.564719702157</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>303.564719702157</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2363,25 +2363,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>135.0672022418656</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.0643428127157</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3268018421339</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>303.5647197021571</v>
       </c>
       <c r="W23" t="n">
-        <v>303.564719702157</v>
+        <v>266.0508976212589</v>
       </c>
       <c r="X23" t="n">
-        <v>267.3798051136598</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>98.64742431858946</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3.494513674742026</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>169.3413346670932</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.656547423188</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9330875009155</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2460,7 +2460,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>205.185902733134</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>303.564719702157</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>267.3798051136599</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>97.55338016096736</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>222.0643428127157</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3268018421339</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>303.564719702157</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>303.5647197021571</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>303.5647197021571</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>303.5647197021571</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.2174395463092</v>
@@ -2652,7 +2652,7 @@
         <v>111.01779988379</v>
       </c>
       <c r="I27" t="n">
-        <v>62.35337200543619</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,13 +2685,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>127.0801045140995</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9330875009155</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>45.31546230094415</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,19 +2798,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>303.564719702157</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>303.564719702157</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>303.564719702157</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>201.3914431891486</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,22 +2837,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.2262797845344</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>222.0643428127157</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3268018421339</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>303.564719702157</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>86.56965231246483</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2883,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>27.86933117789908</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>111.01779988379</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>85.05580262037721</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>169.3413346670932</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>199.656547423188</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>37.93908163450637</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>77.31117335640876</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>127.8747293767254</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3029,10 +3029,10 @@
         <v>303.564719702157</v>
       </c>
       <c r="C32" t="n">
-        <v>303.564719702157</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>232.226861233939</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>135.0672022418656</v>
       </c>
       <c r="S32" t="n">
-        <v>132.3126028717943</v>
+        <v>203.6504613400123</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,16 +3117,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.2174395463092</v>
       </c>
       <c r="H33" t="n">
-        <v>80.64950084902358</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>85.05580262037721</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>169.3413346670932</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>149.6204448383278</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>161.2874101843922</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>43.89849254874189</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3229,10 +3229,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>77.31117335640876</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>127.8747293767254</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>303.564719702157</v>
       </c>
       <c r="C35" t="n">
         <v>303.564719702157</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>97.55338016096745</v>
+        <v>45.31546230094415</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>222.0643428127157</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3268018421339</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>6.34028277315337</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>68.97161891932271</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.2174395463092</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>111.01779988379</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>85.05580262037721</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>92.32996246467216</v>
       </c>
       <c r="S36" t="n">
-        <v>169.3413346670932</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3405,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>205.1859027331342</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,16 +3506,16 @@
         <v>303.564719702157</v>
       </c>
       <c r="D38" t="n">
-        <v>303.564719702157</v>
+        <v>266.0508976212589</v>
       </c>
       <c r="E38" t="n">
-        <v>303.564719702157</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>16.05300327152593</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>135.0672022418656</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.0643428127157</v>
       </c>
       <c r="U38" t="n">
         <v>251.3268018421339</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>140.8129632308501</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3600,7 +3600,7 @@
         <v>111.01779988379</v>
       </c>
       <c r="I39" t="n">
-        <v>85.05580262037721</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>61.45119956582124</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3642,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.8852801196702</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>37.30062261346397</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>205.1859027331342</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>303.564719702157</v>
       </c>
       <c r="D41" t="n">
-        <v>267.3798051136598</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>303.564719702157</v>
@@ -3752,10 +3752,10 @@
         <v>303.564719702157</v>
       </c>
       <c r="G41" t="n">
-        <v>303.564719702157</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>45.31546230094407</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.0643428127157</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>225.9330875009155</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>8.076449578169887</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>89.16382221707747</v>
       </c>
     </row>
     <row r="43">
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.31117335640876</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>127.8747293767252</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>205.185902733134</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>60.30703862039044</v>
       </c>
       <c r="C44" t="n">
         <v>60.30703862039044</v>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>53.11843961683989</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>60.30703862039044</v>
       </c>
     </row>
     <row r="45">
@@ -4056,73 +4056,73 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
+        <v>53.11843961683988</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
         <v>60.30703862039044</v>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>53.11843961683988</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>60.30703862039044</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>60.30703862039044</v>
       </c>
       <c r="Y45" t="n">
-        <v>60.30703862039044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4138,20 +4138,20 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>24.26478687196248</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
+        <v>14.27562478896877</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
         <v>60.30703862039044</v>
       </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>9.989162082993891</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>60.30703862039044</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>60.30703862039044</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>60.30703862039044</v>
       </c>
     </row>
   </sheetData>
@@ -4334,10 +4334,10 @@
         <v>64.52853132381792</v>
       </c>
       <c r="L2" t="n">
-        <v>124.2324995580046</v>
+        <v>121.820218013189</v>
       </c>
       <c r="M2" t="n">
-        <v>181.5241862473756</v>
+        <v>121.820218013189</v>
       </c>
       <c r="N2" t="n">
         <v>181.5241862473756</v>
@@ -4352,28 +4352,28 @@
         <v>241.2281544815623</v>
       </c>
       <c r="R2" t="n">
-        <v>180.3119538549052</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="S2" t="n">
-        <v>180.3119538549052</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="T2" t="n">
-        <v>180.3119538549052</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="U2" t="n">
-        <v>119.395753228248</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="V2" t="n">
-        <v>58.47955260159087</v>
+        <v>187.5731649696027</v>
       </c>
       <c r="W2" t="n">
-        <v>4.824563089631247</v>
+        <v>126.6569643429455</v>
       </c>
       <c r="X2" t="n">
-        <v>4.824563089631247</v>
+        <v>126.6569643429455</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.824563089631247</v>
+        <v>65.7407637162884</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>187.5731649696027</v>
+        <v>58.47955260159087</v>
       </c>
       <c r="C3" t="n">
-        <v>126.6569643429455</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="D3" t="n">
-        <v>65.7407637162884</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="E3" t="n">
-        <v>65.7407637162884</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="F3" t="n">
-        <v>65.7407637162884</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="G3" t="n">
         <v>4.824563089631247</v>
@@ -4413,19 +4413,19 @@
         <v>64.52853132381792</v>
       </c>
       <c r="L3" t="n">
-        <v>124.2324995580046</v>
+        <v>64.52853132381792</v>
       </c>
       <c r="M3" t="n">
         <v>124.2324995580046</v>
       </c>
       <c r="N3" t="n">
-        <v>124.2324995580046</v>
+        <v>181.5241862473756</v>
       </c>
       <c r="O3" t="n">
         <v>181.5241862473756</v>
       </c>
       <c r="P3" t="n">
-        <v>181.5241862473756</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="Q3" t="n">
         <v>241.2281544815623</v>
@@ -4437,22 +4437,22 @@
         <v>241.2281544815623</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5731649696027</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5731649696027</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5731649696027</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5731649696027</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5731649696027</v>
+        <v>180.3119538549052</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5731649696027</v>
+        <v>119.395753228248</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.824563089631247</v>
+        <v>139.356853579902</v>
       </c>
       <c r="C4" t="n">
-        <v>4.824563089631247</v>
+        <v>139.356853579902</v>
       </c>
       <c r="D4" t="n">
-        <v>4.824563089631247</v>
+        <v>139.356853579902</v>
       </c>
       <c r="E4" t="n">
-        <v>4.824563089631247</v>
+        <v>139.356853579902</v>
       </c>
       <c r="F4" t="n">
-        <v>4.824563089631247</v>
+        <v>139.356853579902</v>
       </c>
       <c r="G4" t="n">
-        <v>4.824563089631247</v>
+        <v>139.356853579902</v>
       </c>
       <c r="H4" t="n">
-        <v>4.824563089631247</v>
+        <v>78.44065295324486</v>
       </c>
       <c r="I4" t="n">
-        <v>4.824563089631247</v>
+        <v>17.52445232658771</v>
       </c>
       <c r="J4" t="n">
         <v>4.824563089631247</v>
@@ -4504,34 +4504,34 @@
         <v>139.356853579902</v>
       </c>
       <c r="P4" t="n">
-        <v>136.6079235444409</v>
+        <v>139.356853579902</v>
       </c>
       <c r="Q4" t="n">
-        <v>75.69172291778375</v>
+        <v>139.356853579902</v>
       </c>
       <c r="R4" t="n">
-        <v>14.7755222911266</v>
+        <v>139.356853579902</v>
       </c>
       <c r="S4" t="n">
-        <v>4.824563089631247</v>
+        <v>139.356853579902</v>
       </c>
       <c r="T4" t="n">
-        <v>4.824563089631247</v>
+        <v>139.356853579902</v>
       </c>
       <c r="U4" t="n">
-        <v>4.824563089631247</v>
+        <v>139.356853579902</v>
       </c>
       <c r="V4" t="n">
-        <v>4.824563089631247</v>
+        <v>139.356853579902</v>
       </c>
       <c r="W4" t="n">
-        <v>4.824563089631247</v>
+        <v>139.356853579902</v>
       </c>
       <c r="X4" t="n">
-        <v>4.824563089631247</v>
+        <v>139.356853579902</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.824563089631247</v>
+        <v>139.356853579902</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.395753228248</v>
+        <v>58.47955260159087</v>
       </c>
       <c r="C5" t="n">
-        <v>119.395753228248</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="D5" t="n">
-        <v>65.7407637162884</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="E5" t="n">
         <v>4.824563089631247</v>
@@ -4574,13 +4574,13 @@
         <v>124.2324995580046</v>
       </c>
       <c r="M5" t="n">
-        <v>181.5241862473756</v>
+        <v>183.9364677921913</v>
       </c>
       <c r="N5" t="n">
-        <v>181.5241862473756</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="O5" t="n">
-        <v>181.5241862473756</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="P5" t="n">
         <v>241.2281544815623</v>
@@ -4607,10 +4607,10 @@
         <v>180.3119538549052</v>
       </c>
       <c r="X5" t="n">
-        <v>180.3119538549052</v>
+        <v>119.395753228248</v>
       </c>
       <c r="Y5" t="n">
-        <v>119.395753228248</v>
+        <v>58.47955260159087</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.824563089631247</v>
+        <v>180.3119538549052</v>
       </c>
       <c r="C6" t="n">
-        <v>4.824563089631247</v>
+        <v>180.3119538549052</v>
       </c>
       <c r="D6" t="n">
-        <v>4.824563089631247</v>
+        <v>180.3119538549052</v>
       </c>
       <c r="E6" t="n">
-        <v>4.824563089631247</v>
+        <v>180.3119538549052</v>
       </c>
       <c r="F6" t="n">
-        <v>4.824563089631247</v>
+        <v>119.395753228248</v>
       </c>
       <c r="G6" t="n">
-        <v>4.824563089631247</v>
+        <v>58.47955260159087</v>
       </c>
       <c r="H6" t="n">
         <v>4.824563089631247</v>
@@ -4650,10 +4650,10 @@
         <v>4.824563089631247</v>
       </c>
       <c r="L6" t="n">
-        <v>4.824563089631247</v>
+        <v>62.11624977900229</v>
       </c>
       <c r="M6" t="n">
-        <v>4.824563089631247</v>
+        <v>62.11624977900229</v>
       </c>
       <c r="N6" t="n">
         <v>62.11624977900229</v>
@@ -4668,28 +4668,28 @@
         <v>241.2281544815623</v>
       </c>
       <c r="R6" t="n">
-        <v>180.3119538549052</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="S6" t="n">
-        <v>119.395753228248</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="T6" t="n">
-        <v>65.7407637162884</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="U6" t="n">
-        <v>65.7407637162884</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="V6" t="n">
-        <v>65.7407637162884</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="W6" t="n">
-        <v>65.7407637162884</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="X6" t="n">
-        <v>65.7407637162884</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="Y6" t="n">
-        <v>65.7407637162884</v>
+        <v>241.2281544815623</v>
       </c>
     </row>
     <row r="7">
@@ -4717,13 +4717,13 @@
         <v>139.356853579902</v>
       </c>
       <c r="H7" t="n">
-        <v>139.356853579902</v>
+        <v>126.6569643429455</v>
       </c>
       <c r="I7" t="n">
-        <v>78.44065295324486</v>
+        <v>65.7407637162884</v>
       </c>
       <c r="J7" t="n">
-        <v>17.52445232658771</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="K7" t="n">
         <v>4.824563089631247</v>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.395753228248</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="C8" t="n">
-        <v>119.395753228248</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="D8" t="n">
-        <v>58.47955260159087</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="E8" t="n">
         <v>4.824563089631247</v>
@@ -4805,16 +4805,16 @@
         <v>4.824563089631247</v>
       </c>
       <c r="K8" t="n">
-        <v>4.824563089631247</v>
+        <v>62.11624977900229</v>
       </c>
       <c r="L8" t="n">
-        <v>64.52853132381792</v>
+        <v>121.820218013189</v>
       </c>
       <c r="M8" t="n">
-        <v>121.820218013189</v>
+        <v>181.5241862473756</v>
       </c>
       <c r="N8" t="n">
-        <v>181.5241862473756</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="O8" t="n">
         <v>241.2281544815623</v>
@@ -4829,25 +4829,25 @@
         <v>241.2281544815623</v>
       </c>
       <c r="S8" t="n">
-        <v>241.2281544815623</v>
+        <v>180.3119538549052</v>
       </c>
       <c r="T8" t="n">
-        <v>241.2281544815623</v>
+        <v>119.395753228248</v>
       </c>
       <c r="U8" t="n">
-        <v>241.2281544815623</v>
+        <v>119.395753228248</v>
       </c>
       <c r="V8" t="n">
-        <v>241.2281544815623</v>
+        <v>119.395753228248</v>
       </c>
       <c r="W8" t="n">
-        <v>180.3119538549052</v>
+        <v>119.395753228248</v>
       </c>
       <c r="X8" t="n">
-        <v>119.395753228248</v>
+        <v>58.47955260159087</v>
       </c>
       <c r="Y8" t="n">
-        <v>119.395753228248</v>
+        <v>4.824563089631247</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65.7407637162884</v>
+        <v>119.395753228248</v>
       </c>
       <c r="C9" t="n">
-        <v>65.7407637162884</v>
+        <v>119.395753228248</v>
       </c>
       <c r="D9" t="n">
         <v>65.7407637162884</v>
       </c>
       <c r="E9" t="n">
-        <v>65.7407637162884</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="F9" t="n">
-        <v>65.7407637162884</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="G9" t="n">
-        <v>65.7407637162884</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="H9" t="n">
-        <v>65.7407637162884</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="I9" t="n">
         <v>4.824563089631247</v>
@@ -4893,10 +4893,10 @@
         <v>62.11624977900229</v>
       </c>
       <c r="N9" t="n">
-        <v>62.11624977900229</v>
+        <v>121.820218013189</v>
       </c>
       <c r="O9" t="n">
-        <v>121.820218013189</v>
+        <v>181.5241862473756</v>
       </c>
       <c r="P9" t="n">
         <v>181.5241862473756</v>
@@ -4905,28 +4905,28 @@
         <v>241.2281544815623</v>
       </c>
       <c r="R9" t="n">
+        <v>241.2281544815623</v>
+      </c>
+      <c r="S9" t="n">
+        <v>241.2281544815623</v>
+      </c>
+      <c r="T9" t="n">
+        <v>241.2281544815623</v>
+      </c>
+      <c r="U9" t="n">
+        <v>241.2281544815623</v>
+      </c>
+      <c r="V9" t="n">
+        <v>241.2281544815623</v>
+      </c>
+      <c r="W9" t="n">
+        <v>241.2281544815623</v>
+      </c>
+      <c r="X9" t="n">
         <v>180.3119538549052</v>
       </c>
-      <c r="S9" t="n">
-        <v>126.6569643429455</v>
-      </c>
-      <c r="T9" t="n">
-        <v>126.6569643429455</v>
-      </c>
-      <c r="U9" t="n">
-        <v>65.7407637162884</v>
-      </c>
-      <c r="V9" t="n">
-        <v>65.7407637162884</v>
-      </c>
-      <c r="W9" t="n">
-        <v>65.7407637162884</v>
-      </c>
-      <c r="X9" t="n">
-        <v>65.7407637162884</v>
-      </c>
       <c r="Y9" t="n">
-        <v>65.7407637162884</v>
+        <v>180.3119538549052</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>180.3119538549052</v>
+      </c>
+      <c r="C11" t="n">
+        <v>180.3119538549052</v>
+      </c>
+      <c r="D11" t="n">
+        <v>180.3119538549052</v>
+      </c>
+      <c r="E11" t="n">
+        <v>180.3119538549052</v>
+      </c>
+      <c r="F11" t="n">
+        <v>180.3119538549052</v>
+      </c>
+      <c r="G11" t="n">
+        <v>126.6569643429455</v>
+      </c>
+      <c r="H11" t="n">
         <v>65.7407637162884</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.824563089631247</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4.824563089631247</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4.824563089631247</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4.824563089631247</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4.824563089631247</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4.824563089631247</v>
       </c>
       <c r="I11" t="n">
         <v>4.824563089631247</v>
       </c>
       <c r="J11" t="n">
-        <v>4.824563089631247</v>
+        <v>12.79427951983574</v>
       </c>
       <c r="K11" t="n">
-        <v>4.824563089631247</v>
+        <v>72.49824775402242</v>
       </c>
       <c r="L11" t="n">
-        <v>64.52853132381792</v>
+        <v>132.2022159882091</v>
       </c>
       <c r="M11" t="n">
-        <v>64.52853132381792</v>
+        <v>132.2022159882091</v>
       </c>
       <c r="N11" t="n">
-        <v>124.2324995580046</v>
+        <v>132.2022159882091</v>
       </c>
       <c r="O11" t="n">
-        <v>183.9364677921913</v>
+        <v>191.9061842223958</v>
       </c>
       <c r="P11" t="n">
-        <v>241.2281544815623</v>
+        <v>225.9271218142021</v>
       </c>
       <c r="Q11" t="n">
         <v>241.2281544815623</v>
       </c>
       <c r="R11" t="n">
-        <v>187.5731649696027</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="S11" t="n">
-        <v>126.6569643429455</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="T11" t="n">
-        <v>126.6569643429455</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="U11" t="n">
-        <v>126.6569643429455</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="V11" t="n">
-        <v>126.6569643429455</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="W11" t="n">
-        <v>65.7407637162884</v>
+        <v>241.2281544815623</v>
       </c>
       <c r="X11" t="n">
-        <v>65.7407637162884</v>
+        <v>180.3119538549052</v>
       </c>
       <c r="Y11" t="n">
-        <v>65.7407637162884</v>
+        <v>180.3119538549052</v>
       </c>
     </row>
     <row r="12">
@@ -5124,10 +5124,10 @@
         <v>75.58186014862123</v>
       </c>
       <c r="L12" t="n">
-        <v>75.58186014862123</v>
+        <v>135.2858283828079</v>
       </c>
       <c r="M12" t="n">
-        <v>121.820218013189</v>
+        <v>135.2858283828079</v>
       </c>
       <c r="N12" t="n">
         <v>181.5241862473756</v>
@@ -5136,34 +5136,34 @@
         <v>181.5241862473756</v>
       </c>
       <c r="P12" t="n">
-        <v>241.2281544815623</v>
+        <v>181.5241862473756</v>
       </c>
       <c r="Q12" t="n">
         <v>241.2281544815623</v>
       </c>
       <c r="R12" t="n">
-        <v>241.2281544815623</v>
+        <v>180.3119538549052</v>
       </c>
       <c r="S12" t="n">
-        <v>241.2281544815623</v>
+        <v>119.395753228248</v>
       </c>
       <c r="T12" t="n">
-        <v>187.5731649696027</v>
+        <v>58.47955260159087</v>
       </c>
       <c r="U12" t="n">
-        <v>126.6569643429455</v>
+        <v>58.47955260159087</v>
       </c>
       <c r="V12" t="n">
-        <v>65.7407637162884</v>
+        <v>58.47955260159087</v>
       </c>
       <c r="W12" t="n">
-        <v>4.824563089631247</v>
+        <v>58.47955260159087</v>
       </c>
       <c r="X12" t="n">
-        <v>4.824563089631247</v>
+        <v>58.47955260159087</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.824563089631247</v>
+        <v>58.47955260159087</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>212.0830506988575</v>
+        <v>126.6569643429455</v>
       </c>
       <c r="C13" t="n">
-        <v>212.0830506988575</v>
+        <v>65.7407637162884</v>
       </c>
       <c r="D13" t="n">
-        <v>212.0830506988575</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="E13" t="n">
-        <v>212.0830506988575</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="F13" t="n">
-        <v>212.0830506988575</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="G13" t="n">
-        <v>197.6632276796975</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="H13" t="n">
-        <v>136.7470270530404</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="I13" t="n">
-        <v>75.83082642638323</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="J13" t="n">
-        <v>14.91462579972608</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="K13" t="n">
         <v>4.824563089631247</v>
@@ -5242,7 +5242,7 @@
         <v>212.0830506988575</v>
       </c>
       <c r="Y13" t="n">
-        <v>212.0830506988575</v>
+        <v>187.5731649696027</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.2281544815623</v>
+        <v>126.6569643429455</v>
       </c>
       <c r="C14" t="n">
-        <v>241.2281544815623</v>
+        <v>65.7407637162884</v>
       </c>
       <c r="D14" t="n">
-        <v>241.2281544815623</v>
+        <v>65.7407637162884</v>
       </c>
       <c r="E14" t="n">
-        <v>241.2281544815623</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="F14" t="n">
-        <v>180.3119538549052</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="G14" t="n">
-        <v>126.6569643429455</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="H14" t="n">
-        <v>65.7407637162884</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="I14" t="n">
         <v>4.824563089631247</v>
@@ -5285,13 +5285,13 @@
         <v>132.2022159882091</v>
       </c>
       <c r="M14" t="n">
-        <v>166.2231535800155</v>
+        <v>191.9061842223958</v>
       </c>
       <c r="N14" t="n">
-        <v>166.2231535800155</v>
+        <v>225.9271218142021</v>
       </c>
       <c r="O14" t="n">
-        <v>166.2231535800155</v>
+        <v>225.9271218142021</v>
       </c>
       <c r="P14" t="n">
         <v>225.9271218142021</v>
@@ -5318,10 +5318,10 @@
         <v>241.2281544815623</v>
       </c>
       <c r="X14" t="n">
-        <v>241.2281544815623</v>
+        <v>187.5731649696027</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.2281544815623</v>
+        <v>187.5731649696027</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>180.3119538549052</v>
+        <v>65.7407637162884</v>
       </c>
       <c r="C15" t="n">
-        <v>119.395753228248</v>
+        <v>65.7407637162884</v>
       </c>
       <c r="D15" t="n">
-        <v>58.47955260159087</v>
+        <v>65.7407637162884</v>
       </c>
       <c r="E15" t="n">
-        <v>4.824563089631247</v>
+        <v>65.7407637162884</v>
       </c>
       <c r="F15" t="n">
-        <v>4.824563089631247</v>
+        <v>65.7407637162884</v>
       </c>
       <c r="G15" t="n">
-        <v>4.824563089631247</v>
+        <v>65.7407637162884</v>
       </c>
       <c r="H15" t="n">
-        <v>4.824563089631247</v>
+        <v>65.7407637162884</v>
       </c>
       <c r="I15" t="n">
         <v>4.824563089631247</v>
       </c>
       <c r="J15" t="n">
-        <v>4.824563089631247</v>
+        <v>15.87789191443456</v>
       </c>
       <c r="K15" t="n">
-        <v>64.52853132381792</v>
+        <v>15.87789191443456</v>
       </c>
       <c r="L15" t="n">
-        <v>64.52853132381792</v>
+        <v>15.87789191443456</v>
       </c>
       <c r="M15" t="n">
-        <v>124.2324995580046</v>
+        <v>62.11624977900229</v>
       </c>
       <c r="N15" t="n">
-        <v>181.5241862473756</v>
+        <v>121.820218013189</v>
       </c>
       <c r="O15" t="n">
         <v>181.5241862473756</v>
@@ -5394,13 +5394,13 @@
         <v>241.2281544815623</v>
       </c>
       <c r="W15" t="n">
-        <v>241.2281544815623</v>
+        <v>180.3119538549052</v>
       </c>
       <c r="X15" t="n">
-        <v>241.2281544815623</v>
+        <v>180.3119538549052</v>
       </c>
       <c r="Y15" t="n">
-        <v>241.2281544815623</v>
+        <v>119.395753228248</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.824563089631247</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="C16" t="n">
-        <v>4.824563089631247</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="D16" t="n">
-        <v>4.824563089631247</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="E16" t="n">
-        <v>4.824563089631247</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="F16" t="n">
-        <v>4.824563089631247</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="G16" t="n">
-        <v>4.824563089631247</v>
+        <v>197.6632276796975</v>
       </c>
       <c r="H16" t="n">
-        <v>4.824563089631247</v>
+        <v>136.7470270530404</v>
       </c>
       <c r="I16" t="n">
-        <v>4.824563089631247</v>
+        <v>75.83082642638323</v>
       </c>
       <c r="J16" t="n">
-        <v>4.824563089631247</v>
+        <v>14.91462579972608</v>
       </c>
       <c r="K16" t="n">
         <v>4.824563089631247</v>
@@ -5455,31 +5455,31 @@
         <v>212.0830506988575</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.1668500722004</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="R16" t="n">
-        <v>90.25064944554322</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="S16" t="n">
-        <v>29.33444881888607</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="T16" t="n">
-        <v>4.824563089631247</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="U16" t="n">
-        <v>4.824563089631247</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="V16" t="n">
-        <v>4.824563089631247</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="W16" t="n">
-        <v>4.824563089631247</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="X16" t="n">
-        <v>4.824563089631247</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.824563089631247</v>
+        <v>212.0830506988575</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>119.395753228248</v>
       </c>
       <c r="E17" t="n">
-        <v>119.395753228248</v>
+        <v>58.47955260159087</v>
       </c>
       <c r="F17" t="n">
-        <v>65.7407637162884</v>
+        <v>58.47955260159087</v>
       </c>
       <c r="G17" t="n">
-        <v>65.7407637162884</v>
+        <v>58.47955260159087</v>
       </c>
       <c r="H17" t="n">
-        <v>65.7407637162884</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="I17" t="n">
         <v>4.824563089631247</v>
@@ -5519,13 +5519,13 @@
         <v>72.49824775402242</v>
       </c>
       <c r="L17" t="n">
+        <v>72.49824775402242</v>
+      </c>
+      <c r="M17" t="n">
         <v>132.2022159882091</v>
       </c>
-      <c r="M17" t="n">
-        <v>166.2231535800155</v>
-      </c>
       <c r="N17" t="n">
-        <v>166.2231535800155</v>
+        <v>191.9061842223958</v>
       </c>
       <c r="O17" t="n">
         <v>225.9271218142021</v>
@@ -5549,16 +5549,16 @@
         <v>180.3119538549052</v>
       </c>
       <c r="V17" t="n">
-        <v>119.395753228248</v>
+        <v>180.3119538549052</v>
       </c>
       <c r="W17" t="n">
-        <v>119.395753228248</v>
+        <v>180.3119538549052</v>
       </c>
       <c r="X17" t="n">
-        <v>119.395753228248</v>
+        <v>180.3119538549052</v>
       </c>
       <c r="Y17" t="n">
-        <v>119.395753228248</v>
+        <v>180.3119538549052</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>241.2281544815623</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="C18" t="n">
-        <v>241.2281544815623</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="D18" t="n">
-        <v>241.2281544815623</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="E18" t="n">
-        <v>180.3119538549052</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="F18" t="n">
-        <v>119.395753228248</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="G18" t="n">
-        <v>58.47955260159087</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="H18" t="n">
         <v>4.824563089631247</v>
@@ -5595,49 +5595,49 @@
         <v>4.824563089631247</v>
       </c>
       <c r="K18" t="n">
-        <v>64.52853132381792</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="L18" t="n">
+        <v>4.824563089631247</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4.824563089631247</v>
+      </c>
+      <c r="N18" t="n">
+        <v>62.11624977900229</v>
+      </c>
+      <c r="O18" t="n">
         <v>121.820218013189</v>
       </c>
-      <c r="M18" t="n">
+      <c r="P18" t="n">
         <v>181.5241862473756</v>
-      </c>
-      <c r="N18" t="n">
-        <v>181.5241862473756</v>
-      </c>
-      <c r="O18" t="n">
-        <v>181.5241862473756</v>
-      </c>
-      <c r="P18" t="n">
-        <v>241.2281544815623</v>
       </c>
       <c r="Q18" t="n">
         <v>241.2281544815623</v>
       </c>
       <c r="R18" t="n">
-        <v>241.2281544815623</v>
+        <v>180.3119538549052</v>
       </c>
       <c r="S18" t="n">
-        <v>241.2281544815623</v>
+        <v>126.6569643429455</v>
       </c>
       <c r="T18" t="n">
-        <v>241.2281544815623</v>
+        <v>126.6569643429455</v>
       </c>
       <c r="U18" t="n">
-        <v>241.2281544815623</v>
+        <v>126.6569643429455</v>
       </c>
       <c r="V18" t="n">
-        <v>241.2281544815623</v>
+        <v>126.6569643429455</v>
       </c>
       <c r="W18" t="n">
-        <v>241.2281544815623</v>
+        <v>126.6569643429455</v>
       </c>
       <c r="X18" t="n">
-        <v>241.2281544815623</v>
+        <v>126.6569643429455</v>
       </c>
       <c r="Y18" t="n">
-        <v>241.2281544815623</v>
+        <v>65.7407637162884</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>151.1668500722004</v>
+        <v>29.33444881888607</v>
       </c>
       <c r="C19" t="n">
-        <v>151.1668500722004</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="D19" t="n">
-        <v>151.1668500722004</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="E19" t="n">
-        <v>126.6569643429455</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="F19" t="n">
-        <v>65.7407637162884</v>
+        <v>4.824563089631247</v>
       </c>
       <c r="G19" t="n">
         <v>4.824563089631247</v>
@@ -5695,28 +5695,28 @@
         <v>212.0830506988575</v>
       </c>
       <c r="R19" t="n">
-        <v>212.0830506988575</v>
+        <v>151.1668500722004</v>
       </c>
       <c r="S19" t="n">
-        <v>151.1668500722004</v>
+        <v>90.25064944554322</v>
       </c>
       <c r="T19" t="n">
-        <v>151.1668500722004</v>
+        <v>90.25064944554322</v>
       </c>
       <c r="U19" t="n">
-        <v>151.1668500722004</v>
+        <v>90.25064944554322</v>
       </c>
       <c r="V19" t="n">
-        <v>151.1668500722004</v>
+        <v>29.33444881888607</v>
       </c>
       <c r="W19" t="n">
-        <v>151.1668500722004</v>
+        <v>29.33444881888607</v>
       </c>
       <c r="X19" t="n">
-        <v>151.1668500722004</v>
+        <v>29.33444881888607</v>
       </c>
       <c r="Y19" t="n">
-        <v>151.1668500722004</v>
+        <v>29.33444881888607</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>464.5653013882446</v>
+        <v>683.3204318239084</v>
       </c>
       <c r="C20" t="n">
-        <v>464.5653013882446</v>
+        <v>683.3204318239084</v>
       </c>
       <c r="D20" t="n">
-        <v>157.9342713860657</v>
+        <v>683.3204318239084</v>
       </c>
       <c r="E20" t="n">
-        <v>24.28517757617256</v>
+        <v>376.6894018217295</v>
       </c>
       <c r="F20" t="n">
-        <v>24.28517757617256</v>
+        <v>70.05837181955053</v>
       </c>
       <c r="G20" t="n">
-        <v>24.28517757617256</v>
+        <v>70.05837181955053</v>
       </c>
       <c r="H20" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="I20" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="J20" t="n">
         <v>32.25489400637707</v>
@@ -5756,13 +5756,13 @@
         <v>164.9442372470745</v>
       </c>
       <c r="L20" t="n">
-        <v>381.8337282737187</v>
+        <v>381.8337282737189</v>
       </c>
       <c r="M20" t="n">
-        <v>639.7716226447614</v>
+        <v>639.7716226447615</v>
       </c>
       <c r="N20" t="n">
-        <v>887.2512242666805</v>
+        <v>887.2512242666808</v>
       </c>
       <c r="O20" t="n">
         <v>1075.751556552325</v>
@@ -5774,28 +5774,28 @@
         <v>1214.258878808628</v>
       </c>
       <c r="R20" t="n">
-        <v>1077.827361392602</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="S20" t="n">
-        <v>1077.827361392602</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="T20" t="n">
-        <v>1077.827361392602</v>
+        <v>989.9514618260873</v>
       </c>
       <c r="U20" t="n">
-        <v>1077.827361392602</v>
+        <v>989.9514618260873</v>
       </c>
       <c r="V20" t="n">
-        <v>1077.827361392602</v>
+        <v>683.3204318239084</v>
       </c>
       <c r="W20" t="n">
-        <v>1077.827361392602</v>
+        <v>683.3204318239084</v>
       </c>
       <c r="X20" t="n">
-        <v>1077.827361392602</v>
+        <v>683.3204318239084</v>
       </c>
       <c r="Y20" t="n">
-        <v>771.1963313904234</v>
+        <v>683.3204318239084</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>198.7382068572996</v>
+        <v>817.8283018886457</v>
       </c>
       <c r="C21" t="n">
-        <v>24.28517757617256</v>
+        <v>815.6492184487988</v>
       </c>
       <c r="D21" t="n">
-        <v>24.28517757617256</v>
+        <v>666.7148087875476</v>
       </c>
       <c r="E21" t="n">
-        <v>24.28517757617256</v>
+        <v>507.4773537820921</v>
       </c>
       <c r="F21" t="n">
-        <v>24.28517757617256</v>
+        <v>360.9427958089771</v>
       </c>
       <c r="G21" t="n">
-        <v>24.28517757617256</v>
+        <v>222.3393215197759</v>
       </c>
       <c r="H21" t="n">
-        <v>24.28517757617256</v>
+        <v>110.2001297179677</v>
       </c>
       <c r="I21" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="J21" t="n">
-        <v>24.28517757617256</v>
+        <v>35.33850640097588</v>
       </c>
       <c r="K21" t="n">
-        <v>169.7979202008839</v>
+        <v>180.8512490256872</v>
       </c>
       <c r="L21" t="n">
-        <v>426.862156334412</v>
+        <v>437.9154851592153</v>
       </c>
       <c r="M21" t="n">
-        <v>727.3912288395475</v>
+        <v>738.4445576643509</v>
       </c>
       <c r="N21" t="n">
-        <v>935.8083631491653</v>
+        <v>1038.973630169487</v>
       </c>
       <c r="O21" t="n">
-        <v>1214.258878808628</v>
+        <v>1038.973630169487</v>
       </c>
       <c r="P21" t="n">
         <v>1214.258878808628</v>
@@ -5853,28 +5853,28 @@
         <v>1214.258878808628</v>
       </c>
       <c r="R21" t="n">
-        <v>1120.996290460474</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="S21" t="n">
-        <v>949.9444372613905</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="T21" t="n">
-        <v>748.271157035948</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="U21" t="n">
-        <v>748.271157035948</v>
+        <v>986.0436389087138</v>
       </c>
       <c r="V21" t="n">
-        <v>748.271157035948</v>
+        <v>986.0436389087138</v>
       </c>
       <c r="W21" t="n">
-        <v>748.271157035948</v>
+        <v>986.0436389087138</v>
       </c>
       <c r="X21" t="n">
-        <v>574.7138426423215</v>
+        <v>986.0436389087138</v>
       </c>
       <c r="Y21" t="n">
-        <v>366.9535438773676</v>
+        <v>986.0436389087138</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="C22" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="D22" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="E22" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="F22" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="G22" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="H22" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="I22" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="J22" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="K22" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="L22" t="n">
         <v>67.15675074421841</v>
@@ -5938,22 +5938,22 @@
         <v>231.5436651853988</v>
       </c>
       <c r="T22" t="n">
-        <v>231.5436651853988</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="U22" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="V22" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="W22" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="X22" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="Y22" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>637.5472375805302</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="C23" t="n">
-        <v>637.5472375805302</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="D23" t="n">
-        <v>637.5472375805302</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="E23" t="n">
-        <v>330.9162075783514</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="F23" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="G23" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="H23" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="I23" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="J23" t="n">
-        <v>32.25489400637707</v>
+        <v>32.25489400637706</v>
       </c>
       <c r="K23" t="n">
         <v>164.9442372470745</v>
@@ -6011,28 +6011,28 @@
         <v>1214.258878808628</v>
       </c>
       <c r="R23" t="n">
-        <v>1214.258878808628</v>
+        <v>1077.827361392602</v>
       </c>
       <c r="S23" t="n">
-        <v>1214.258878808628</v>
+        <v>1077.827361392602</v>
       </c>
       <c r="T23" t="n">
-        <v>1214.258878808628</v>
+        <v>853.5199444100613</v>
       </c>
       <c r="U23" t="n">
-        <v>1214.258878808628</v>
+        <v>599.6544880038655</v>
       </c>
       <c r="V23" t="n">
-        <v>1214.258878808628</v>
+        <v>293.0234580016865</v>
       </c>
       <c r="W23" t="n">
-        <v>907.6278488064493</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="X23" t="n">
-        <v>637.5472375805302</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="Y23" t="n">
-        <v>637.5472375805302</v>
+        <v>24.28517757617257</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>123.9290405242427</v>
+        <v>348.8025766230833</v>
       </c>
       <c r="C24" t="n">
-        <v>24.28517757617256</v>
+        <v>174.3495473419563</v>
       </c>
       <c r="D24" t="n">
-        <v>24.28517757617256</v>
+        <v>174.3495473419563</v>
       </c>
       <c r="E24" t="n">
-        <v>24.28517757617256</v>
+        <v>174.3495473419563</v>
       </c>
       <c r="F24" t="n">
-        <v>24.28517757617256</v>
+        <v>27.81498936884128</v>
       </c>
       <c r="G24" t="n">
-        <v>24.28517757617256</v>
+        <v>27.81498936884128</v>
       </c>
       <c r="H24" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="I24" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="J24" t="n">
-        <v>35.33850640097587</v>
+        <v>35.33850640097588</v>
       </c>
       <c r="K24" t="n">
-        <v>35.33850640097587</v>
+        <v>180.8512490256872</v>
       </c>
       <c r="L24" t="n">
-        <v>292.4027425345039</v>
+        <v>180.8512490256872</v>
       </c>
       <c r="M24" t="n">
-        <v>428.8012708736168</v>
+        <v>428.801270873617</v>
       </c>
       <c r="N24" t="n">
-        <v>729.3303433787523</v>
+        <v>729.3303433787526</v>
       </c>
       <c r="O24" t="n">
         <v>1007.780859038215</v>
@@ -6093,25 +6093,25 @@
         <v>1214.258878808628</v>
       </c>
       <c r="S24" t="n">
-        <v>1043.207025609544</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="T24" t="n">
-        <v>841.5337453841017</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="U24" t="n">
-        <v>613.3185054841871</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="V24" t="n">
-        <v>378.1663972524444</v>
+        <v>979.1067705768858</v>
       </c>
       <c r="W24" t="n">
-        <v>123.9290405242427</v>
+        <v>724.8694138486842</v>
       </c>
       <c r="X24" t="n">
-        <v>123.9290405242427</v>
+        <v>517.0179136431514</v>
       </c>
       <c r="Y24" t="n">
-        <v>123.9290405242427</v>
+        <v>517.0179136431514</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="L25" t="n">
         <v>67.15675074421841</v>
@@ -6172,25 +6172,25 @@
         <v>231.5436651853988</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28517757617256</v>
+        <v>231.5436651853988</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28517757617256</v>
+        <v>231.5436651853988</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28517757617256</v>
+        <v>231.5436651853988</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28517757617256</v>
+        <v>231.5436651853988</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>429.4549754177124</v>
+        <v>294.3657888020916</v>
       </c>
       <c r="C26" t="n">
-        <v>429.4549754177124</v>
+        <v>294.3657888020916</v>
       </c>
       <c r="D26" t="n">
-        <v>122.8239454155336</v>
+        <v>294.3657888020916</v>
       </c>
       <c r="E26" t="n">
-        <v>122.8239454155336</v>
+        <v>294.3657888020916</v>
       </c>
       <c r="F26" t="n">
-        <v>122.8239454155336</v>
+        <v>294.3657888020916</v>
       </c>
       <c r="G26" t="n">
-        <v>122.8239454155336</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="H26" t="n">
-        <v>122.8239454155336</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="I26" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="J26" t="n">
         <v>32.25489400637707</v>
@@ -6230,13 +6230,13 @@
         <v>164.9442372470745</v>
       </c>
       <c r="L26" t="n">
-        <v>381.8337282737187</v>
+        <v>381.8337282737189</v>
       </c>
       <c r="M26" t="n">
-        <v>639.7716226447614</v>
+        <v>639.7716226447615</v>
       </c>
       <c r="N26" t="n">
-        <v>887.2512242666805</v>
+        <v>887.2512242666808</v>
       </c>
       <c r="O26" t="n">
         <v>1075.751556552325</v>
@@ -6254,22 +6254,22 @@
         <v>1214.258878808628</v>
       </c>
       <c r="T26" t="n">
-        <v>989.9514618260871</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="U26" t="n">
-        <v>736.0860054198913</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="V26" t="n">
-        <v>429.4549754177124</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="W26" t="n">
-        <v>429.4549754177124</v>
+        <v>907.6278488064495</v>
       </c>
       <c r="X26" t="n">
-        <v>429.4549754177124</v>
+        <v>600.9968188042706</v>
       </c>
       <c r="Y26" t="n">
-        <v>429.4549754177124</v>
+        <v>294.3657888020916</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>658.998634967319</v>
+        <v>275.0278436671819</v>
       </c>
       <c r="C27" t="n">
-        <v>484.5456056861921</v>
+        <v>275.0278436671819</v>
       </c>
       <c r="D27" t="n">
-        <v>484.5456056861921</v>
+        <v>275.0278436671819</v>
       </c>
       <c r="E27" t="n">
-        <v>484.5456056861921</v>
+        <v>275.0278436671819</v>
       </c>
       <c r="F27" t="n">
-        <v>338.011047713077</v>
+        <v>275.0278436671819</v>
       </c>
       <c r="G27" t="n">
-        <v>199.4075734238758</v>
+        <v>136.4243693779807</v>
       </c>
       <c r="H27" t="n">
-        <v>87.26838162206771</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="I27" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="J27" t="n">
-        <v>35.33850640097587</v>
+        <v>35.33850640097588</v>
       </c>
       <c r="K27" t="n">
-        <v>35.33850640097587</v>
+        <v>180.8512490256872</v>
       </c>
       <c r="L27" t="n">
-        <v>42.94487962410938</v>
+        <v>437.9154851592153</v>
       </c>
       <c r="M27" t="n">
-        <v>343.4739521292449</v>
+        <v>738.4445576643509</v>
       </c>
       <c r="N27" t="n">
-        <v>644.0030246343804</v>
+        <v>1007.780859038215</v>
       </c>
       <c r="O27" t="n">
-        <v>922.4535402938433</v>
+        <v>1007.780859038215</v>
       </c>
       <c r="P27" t="n">
-        <v>1128.931560064256</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="Q27" t="n">
         <v>1214.258878808628</v>
       </c>
       <c r="R27" t="n">
-        <v>1120.996290460474</v>
+        <v>1120.996290460475</v>
       </c>
       <c r="S27" t="n">
-        <v>1120.996290460474</v>
+        <v>1120.996290460475</v>
       </c>
       <c r="T27" t="n">
-        <v>1120.996290460474</v>
+        <v>992.6325485270409</v>
       </c>
       <c r="U27" t="n">
-        <v>1120.996290460474</v>
+        <v>764.4173086271262</v>
       </c>
       <c r="V27" t="n">
-        <v>1120.996290460474</v>
+        <v>529.2652003953835</v>
       </c>
       <c r="W27" t="n">
-        <v>866.7589337322729</v>
+        <v>275.0278436671819</v>
       </c>
       <c r="X27" t="n">
-        <v>866.7589337322729</v>
+        <v>275.0278436671819</v>
       </c>
       <c r="Y27" t="n">
-        <v>658.998634967319</v>
+        <v>275.0278436671819</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="L28" t="n">
         <v>67.15675074421841</v>
@@ -6421,13 +6421,13 @@
         <v>231.5436651853988</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28517757617256</v>
+        <v>24.28517757617257</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>944.1782675827092</v>
+        <v>534.3419077694107</v>
       </c>
       <c r="C29" t="n">
-        <v>944.1782675827092</v>
+        <v>534.3419077694107</v>
       </c>
       <c r="D29" t="n">
-        <v>944.1782675827092</v>
+        <v>534.3419077694107</v>
       </c>
       <c r="E29" t="n">
-        <v>637.5472375805302</v>
+        <v>534.3419077694107</v>
       </c>
       <c r="F29" t="n">
-        <v>637.5472375805302</v>
+        <v>534.3419077694107</v>
       </c>
       <c r="G29" t="n">
-        <v>330.9162075783514</v>
+        <v>534.3419077694107</v>
       </c>
       <c r="H29" t="n">
-        <v>24.28517757617256</v>
+        <v>227.7108777672318</v>
       </c>
       <c r="I29" t="n">
         <v>24.28517757617256</v>
@@ -6485,28 +6485,28 @@
         <v>1214.258878808628</v>
       </c>
       <c r="R29" t="n">
-        <v>1214.258878808628</v>
+        <v>1094.838394177785</v>
       </c>
       <c r="S29" t="n">
-        <v>1214.258878808628</v>
+        <v>1094.838394177785</v>
       </c>
       <c r="T29" t="n">
-        <v>989.9514618260871</v>
+        <v>1094.838394177785</v>
       </c>
       <c r="U29" t="n">
-        <v>989.9514618260871</v>
+        <v>840.9729377715896</v>
       </c>
       <c r="V29" t="n">
-        <v>989.9514618260871</v>
+        <v>840.9729377715896</v>
       </c>
       <c r="W29" t="n">
-        <v>989.9514618260871</v>
+        <v>534.3419077694107</v>
       </c>
       <c r="X29" t="n">
-        <v>989.9514618260871</v>
+        <v>534.3419077694107</v>
       </c>
       <c r="Y29" t="n">
-        <v>989.9514618260871</v>
+        <v>534.3419077694107</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>573.8776000357896</v>
+        <v>286.1823001022136</v>
       </c>
       <c r="C30" t="n">
-        <v>399.4245707546626</v>
+        <v>111.7292708210865</v>
       </c>
       <c r="D30" t="n">
-        <v>250.4901610934113</v>
+        <v>24.28517757617256</v>
       </c>
       <c r="E30" t="n">
-        <v>250.4901610934113</v>
+        <v>24.28517757617256</v>
       </c>
       <c r="F30" t="n">
-        <v>250.4901610934113</v>
+        <v>24.28517757617256</v>
       </c>
       <c r="G30" t="n">
-        <v>222.3393215197759</v>
+        <v>24.28517757617256</v>
       </c>
       <c r="H30" t="n">
-        <v>110.2001297179677</v>
+        <v>24.28517757617256</v>
       </c>
       <c r="I30" t="n">
         <v>24.28517757617256</v>
@@ -6543,22 +6543,22 @@
         <v>35.33850640097587</v>
       </c>
       <c r="K30" t="n">
-        <v>35.33850640097587</v>
+        <v>180.8512490256872</v>
       </c>
       <c r="L30" t="n">
-        <v>249.4228993945223</v>
+        <v>437.9154851592153</v>
       </c>
       <c r="M30" t="n">
-        <v>549.9519718996578</v>
+        <v>729.3303433787523</v>
       </c>
       <c r="N30" t="n">
-        <v>850.4810444047934</v>
+        <v>729.3303433787523</v>
       </c>
       <c r="O30" t="n">
-        <v>1128.931560064256</v>
+        <v>1007.780859038215</v>
       </c>
       <c r="P30" t="n">
-        <v>1128.931560064256</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="Q30" t="n">
         <v>1214.258878808628</v>
@@ -6570,22 +6570,22 @@
         <v>949.9444372613905</v>
       </c>
       <c r="T30" t="n">
-        <v>949.9444372613905</v>
+        <v>748.271157035948</v>
       </c>
       <c r="U30" t="n">
-        <v>949.9444372613905</v>
+        <v>748.271157035948</v>
       </c>
       <c r="V30" t="n">
-        <v>949.9444372613905</v>
+        <v>748.271157035948</v>
       </c>
       <c r="W30" t="n">
-        <v>949.9444372613905</v>
+        <v>494.0338003077464</v>
       </c>
       <c r="X30" t="n">
-        <v>742.0929370558576</v>
+        <v>286.1823001022136</v>
       </c>
       <c r="Y30" t="n">
-        <v>742.0929370558576</v>
+        <v>286.1823001022136</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="C31" t="n">
-        <v>1007.000391199402</v>
+        <v>1045.322695880721</v>
       </c>
       <c r="D31" t="n">
-        <v>1007.000391199402</v>
+        <v>1045.322695880721</v>
       </c>
       <c r="E31" t="n">
-        <v>1007.000391199402</v>
+        <v>1045.322695880721</v>
       </c>
       <c r="F31" t="n">
-        <v>1007.000391199402</v>
+        <v>1045.322695880721</v>
       </c>
       <c r="G31" t="n">
-        <v>1007.000391199402</v>
+        <v>1045.322695880721</v>
       </c>
       <c r="H31" t="n">
-        <v>1007.000391199402</v>
+        <v>1045.322695880721</v>
       </c>
       <c r="I31" t="n">
         <v>1007.000391199402</v>
@@ -6640,31 +6640,31 @@
         <v>1214.258878808628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1136.166784509225</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="R31" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="S31" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="T31" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="U31" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="V31" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="W31" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="X31" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="Y31" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>330.9162075783514</v>
+        <v>258.8577646811614</v>
       </c>
       <c r="C32" t="n">
-        <v>24.28517757617256</v>
+        <v>258.8577646811614</v>
       </c>
       <c r="D32" t="n">
         <v>24.28517757617256</v>
@@ -6725,25 +6725,25 @@
         <v>1077.827361392602</v>
       </c>
       <c r="S32" t="n">
-        <v>944.1782675827092</v>
+        <v>872.1198246855192</v>
       </c>
       <c r="T32" t="n">
-        <v>944.1782675827092</v>
+        <v>872.1198246855192</v>
       </c>
       <c r="U32" t="n">
-        <v>944.1782675827092</v>
+        <v>872.1198246855192</v>
       </c>
       <c r="V32" t="n">
-        <v>944.1782675827092</v>
+        <v>872.1198246855192</v>
       </c>
       <c r="W32" t="n">
-        <v>944.1782675827092</v>
+        <v>872.1198246855192</v>
       </c>
       <c r="X32" t="n">
-        <v>944.1782675827092</v>
+        <v>872.1198246855192</v>
       </c>
       <c r="Y32" t="n">
-        <v>637.5472375805302</v>
+        <v>565.4887946833403</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>366.1173012708358</v>
+        <v>309.4232098384888</v>
       </c>
       <c r="C33" t="n">
-        <v>191.6642719897087</v>
+        <v>309.4232098384888</v>
       </c>
       <c r="D33" t="n">
-        <v>191.6642719897087</v>
+        <v>309.4232098384888</v>
       </c>
       <c r="E33" t="n">
-        <v>191.6642719897087</v>
+        <v>309.4232098384888</v>
       </c>
       <c r="F33" t="n">
-        <v>191.6642719897087</v>
+        <v>162.8886518653737</v>
       </c>
       <c r="G33" t="n">
-        <v>191.6642719897087</v>
+        <v>24.28517757617256</v>
       </c>
       <c r="H33" t="n">
-        <v>110.2001297179677</v>
+        <v>24.28517757617256</v>
       </c>
       <c r="I33" t="n">
         <v>24.28517757617256</v>
       </c>
       <c r="J33" t="n">
-        <v>24.28517757617256</v>
+        <v>35.33850640097587</v>
       </c>
       <c r="K33" t="n">
-        <v>169.7979202008839</v>
+        <v>180.8512490256872</v>
       </c>
       <c r="L33" t="n">
-        <v>169.7979202008839</v>
+        <v>437.9154851592153</v>
       </c>
       <c r="M33" t="n">
-        <v>470.3269927060194</v>
+        <v>437.9154851592153</v>
       </c>
       <c r="N33" t="n">
-        <v>770.8560652111548</v>
+        <v>729.3303433787523</v>
       </c>
       <c r="O33" t="n">
-        <v>1049.306580870618</v>
+        <v>1007.780859038215</v>
       </c>
       <c r="P33" t="n">
         <v>1214.258878808628</v>
@@ -6807,22 +6807,22 @@
         <v>949.9444372613905</v>
       </c>
       <c r="T33" t="n">
-        <v>949.9444372613905</v>
+        <v>798.8126747984331</v>
       </c>
       <c r="U33" t="n">
-        <v>949.9444372613905</v>
+        <v>798.8126747984331</v>
       </c>
       <c r="V33" t="n">
-        <v>949.9444372613905</v>
+        <v>563.6605665666905</v>
       </c>
       <c r="W33" t="n">
-        <v>949.9444372613905</v>
+        <v>309.4232098384888</v>
       </c>
       <c r="X33" t="n">
-        <v>742.0929370558576</v>
+        <v>309.4232098384888</v>
       </c>
       <c r="Y33" t="n">
-        <v>534.3326382909038</v>
+        <v>309.4232098384888</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="C34" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="D34" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="E34" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="F34" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="G34" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="H34" t="n">
-        <v>1007.000391199402</v>
+        <v>1051.342302864798</v>
       </c>
       <c r="I34" t="n">
         <v>1007.000391199402</v>
@@ -6877,31 +6877,31 @@
         <v>1214.258878808628</v>
       </c>
       <c r="Q34" t="n">
-        <v>1136.166784509225</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="R34" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="S34" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="T34" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="U34" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="V34" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="W34" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="X34" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="Y34" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
     </row>
     <row r="35">
@@ -6935,16 +6935,16 @@
         <v>24.28517757617256</v>
       </c>
       <c r="J35" t="n">
-        <v>32.25489400637707</v>
+        <v>32.25489400637705</v>
       </c>
       <c r="K35" t="n">
         <v>164.9442372470745</v>
       </c>
       <c r="L35" t="n">
-        <v>381.8337282737187</v>
+        <v>381.8337282737186</v>
       </c>
       <c r="M35" t="n">
-        <v>639.7716226447614</v>
+        <v>639.7716226447612</v>
       </c>
       <c r="N35" t="n">
         <v>887.2512242666805</v>
@@ -6959,28 +6959,28 @@
         <v>1214.258878808628</v>
       </c>
       <c r="R35" t="n">
-        <v>1115.720110969267</v>
+        <v>1168.48568456525</v>
       </c>
       <c r="S35" t="n">
-        <v>1115.720110969267</v>
+        <v>1168.48568456525</v>
       </c>
       <c r="T35" t="n">
-        <v>891.412693986726</v>
+        <v>944.1782675827092</v>
       </c>
       <c r="U35" t="n">
+        <v>944.1782675827092</v>
+      </c>
+      <c r="V35" t="n">
+        <v>944.1782675827092</v>
+      </c>
+      <c r="W35" t="n">
+        <v>944.1782675827092</v>
+      </c>
+      <c r="X35" t="n">
         <v>637.5472375805302</v>
       </c>
-      <c r="V35" t="n">
+      <c r="Y35" t="n">
         <v>637.5472375805302</v>
-      </c>
-      <c r="W35" t="n">
-        <v>637.5472375805302</v>
-      </c>
-      <c r="X35" t="n">
-        <v>330.9162075783514</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>330.9162075783514</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>205.1425328907878</v>
+        <v>913.2359916955206</v>
       </c>
       <c r="C36" t="n">
-        <v>30.68950360966082</v>
+        <v>738.7829624143936</v>
       </c>
       <c r="D36" t="n">
-        <v>24.28517757617256</v>
+        <v>589.8485527531424</v>
       </c>
       <c r="E36" t="n">
-        <v>24.28517757617256</v>
+        <v>430.6110977476869</v>
       </c>
       <c r="F36" t="n">
-        <v>24.28517757617256</v>
+        <v>360.9427958089771</v>
       </c>
       <c r="G36" t="n">
-        <v>24.28517757617256</v>
+        <v>222.3393215197759</v>
       </c>
       <c r="H36" t="n">
-        <v>24.28517757617256</v>
+        <v>110.2001297179677</v>
       </c>
       <c r="I36" t="n">
         <v>24.28517757617256</v>
       </c>
       <c r="J36" t="n">
-        <v>24.28517757617256</v>
+        <v>35.33850640097587</v>
       </c>
       <c r="K36" t="n">
-        <v>24.28517757617256</v>
+        <v>35.33850640097587</v>
       </c>
       <c r="L36" t="n">
-        <v>281.3494137097006</v>
+        <v>292.4027425345039</v>
       </c>
       <c r="M36" t="n">
-        <v>581.8784862148361</v>
+        <v>343.4739521292449</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4075587199716</v>
+        <v>644.0030246343804</v>
       </c>
       <c r="O36" t="n">
-        <v>1160.858074379435</v>
+        <v>922.4535402938433</v>
       </c>
       <c r="P36" t="n">
-        <v>1214.258878808628</v>
+        <v>1128.931560064256</v>
       </c>
       <c r="Q36" t="n">
         <v>1214.258878808628</v>
       </c>
       <c r="R36" t="n">
-        <v>1214.258878808628</v>
+        <v>1120.996290460474</v>
       </c>
       <c r="S36" t="n">
-        <v>1043.207025609544</v>
+        <v>1120.996290460474</v>
       </c>
       <c r="T36" t="n">
-        <v>1043.207025609544</v>
+        <v>1120.996290460474</v>
       </c>
       <c r="U36" t="n">
-        <v>1043.207025609544</v>
+        <v>1120.996290460474</v>
       </c>
       <c r="V36" t="n">
-        <v>1043.207025609544</v>
+        <v>1120.996290460474</v>
       </c>
       <c r="W36" t="n">
-        <v>788.9696688813426</v>
+        <v>1120.996290460474</v>
       </c>
       <c r="X36" t="n">
-        <v>581.1181686758098</v>
+        <v>1120.996290460474</v>
       </c>
       <c r="Y36" t="n">
-        <v>373.3578699108559</v>
+        <v>913.2359916955206</v>
       </c>
     </row>
     <row r="37">
@@ -7123,19 +7123,19 @@
         <v>1214.258878808628</v>
       </c>
       <c r="T37" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="U37" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="V37" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="W37" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="X37" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="Y37" t="n">
         <v>1007.000391199402</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>960.3934224024324</v>
+        <v>599.6544880038655</v>
       </c>
       <c r="C38" t="n">
-        <v>653.7623924002535</v>
+        <v>293.0234580016866</v>
       </c>
       <c r="D38" t="n">
-        <v>347.1313623980746</v>
+        <v>24.28517757617256</v>
       </c>
       <c r="E38" t="n">
-        <v>40.50033239589573</v>
+        <v>24.28517757617256</v>
       </c>
       <c r="F38" t="n">
-        <v>40.50033239589573</v>
+        <v>24.28517757617256</v>
       </c>
       <c r="G38" t="n">
         <v>24.28517757617256</v>
@@ -7172,16 +7172,16 @@
         <v>24.28517757617256</v>
       </c>
       <c r="J38" t="n">
-        <v>32.25489400637707</v>
+        <v>32.25489400637701</v>
       </c>
       <c r="K38" t="n">
-        <v>164.9442372470745</v>
+        <v>164.9442372470744</v>
       </c>
       <c r="L38" t="n">
-        <v>381.8337282737187</v>
+        <v>381.8337282737186</v>
       </c>
       <c r="M38" t="n">
-        <v>639.7716226447614</v>
+        <v>639.7716226447612</v>
       </c>
       <c r="N38" t="n">
         <v>887.2512242666805</v>
@@ -7196,28 +7196,28 @@
         <v>1214.258878808628</v>
       </c>
       <c r="R38" t="n">
-        <v>1214.258878808628</v>
+        <v>1077.827361392602</v>
       </c>
       <c r="S38" t="n">
-        <v>1214.258878808628</v>
+        <v>1077.827361392602</v>
       </c>
       <c r="T38" t="n">
-        <v>1214.258878808628</v>
+        <v>853.5199444100613</v>
       </c>
       <c r="U38" t="n">
-        <v>960.3934224024324</v>
+        <v>599.6544880038655</v>
       </c>
       <c r="V38" t="n">
-        <v>960.3934224024324</v>
+        <v>599.6544880038655</v>
       </c>
       <c r="W38" t="n">
-        <v>960.3934224024324</v>
+        <v>599.6544880038655</v>
       </c>
       <c r="X38" t="n">
-        <v>960.3934224024324</v>
+        <v>599.6544880038655</v>
       </c>
       <c r="Y38" t="n">
-        <v>960.3934224024324</v>
+        <v>599.6544880038655</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>798.6470798381415</v>
+        <v>729.7342663070037</v>
       </c>
       <c r="C39" t="n">
-        <v>798.6470798381415</v>
+        <v>729.7342663070037</v>
       </c>
       <c r="D39" t="n">
-        <v>649.7126701768902</v>
+        <v>580.7998566457525</v>
       </c>
       <c r="E39" t="n">
-        <v>507.4773537820921</v>
+        <v>421.5624016402969</v>
       </c>
       <c r="F39" t="n">
-        <v>360.9427958089771</v>
+        <v>275.0278436671819</v>
       </c>
       <c r="G39" t="n">
-        <v>222.3393215197759</v>
+        <v>136.4243693779807</v>
       </c>
       <c r="H39" t="n">
-        <v>110.2001297179677</v>
+        <v>24.28517757617256</v>
       </c>
       <c r="I39" t="n">
         <v>24.28517757617256</v>
@@ -7257,13 +7257,13 @@
         <v>169.7979202008839</v>
       </c>
       <c r="L39" t="n">
-        <v>426.862156334412</v>
+        <v>406.7227140279442</v>
       </c>
       <c r="M39" t="n">
-        <v>727.3912288395475</v>
+        <v>707.2517865330797</v>
       </c>
       <c r="N39" t="n">
-        <v>729.3303433787523</v>
+        <v>1007.780859038215</v>
       </c>
       <c r="O39" t="n">
         <v>1007.780859038215</v>
@@ -7278,25 +7278,25 @@
         <v>1214.258878808628</v>
       </c>
       <c r="S39" t="n">
-        <v>1214.258878808628</v>
+        <v>1152.186960055273</v>
       </c>
       <c r="T39" t="n">
-        <v>1214.258878808628</v>
+        <v>1152.186960055273</v>
       </c>
       <c r="U39" t="n">
-        <v>1214.258878808628</v>
+        <v>1152.186960055273</v>
       </c>
       <c r="V39" t="n">
-        <v>1214.258878808628</v>
+        <v>1152.186960055273</v>
       </c>
       <c r="W39" t="n">
-        <v>1214.258878808628</v>
+        <v>897.9496033270718</v>
       </c>
       <c r="X39" t="n">
-        <v>1006.407378603095</v>
+        <v>897.9496033270718</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.6470798381415</v>
+        <v>897.9496033270718</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="C40" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="D40" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="E40" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="F40" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="G40" t="n">
-        <v>1007.000391199402</v>
+        <v>1044.677787778658</v>
       </c>
       <c r="H40" t="n">
         <v>1007.000391199402</v>
@@ -7369,13 +7369,13 @@
         <v>1214.258878808628</v>
       </c>
       <c r="W40" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="X40" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
       <c r="Y40" t="n">
-        <v>1007.000391199402</v>
+        <v>1214.258878808628</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1214.258878808628</v>
+        <v>989.9514618260871</v>
       </c>
       <c r="C41" t="n">
-        <v>1214.258878808628</v>
+        <v>683.3204318239082</v>
       </c>
       <c r="D41" t="n">
-        <v>944.1782675827092</v>
+        <v>683.3204318239082</v>
       </c>
       <c r="E41" t="n">
-        <v>637.5472375805302</v>
+        <v>376.6894018217293</v>
       </c>
       <c r="F41" t="n">
-        <v>330.9162075783514</v>
+        <v>70.05837181955042</v>
       </c>
       <c r="G41" t="n">
-        <v>24.28517757617256</v>
+        <v>70.05837181955042</v>
       </c>
       <c r="H41" t="n">
         <v>24.28517757617256</v>
@@ -7409,7 +7409,7 @@
         <v>24.28517757617256</v>
       </c>
       <c r="J41" t="n">
-        <v>32.25489400637705</v>
+        <v>32.25489400637701</v>
       </c>
       <c r="K41" t="n">
         <v>164.9442372470744</v>
@@ -7439,22 +7439,22 @@
         <v>1214.258878808628</v>
       </c>
       <c r="T41" t="n">
-        <v>1214.258878808628</v>
+        <v>989.9514618260871</v>
       </c>
       <c r="U41" t="n">
-        <v>1214.258878808628</v>
+        <v>989.9514618260871</v>
       </c>
       <c r="V41" t="n">
-        <v>1214.258878808628</v>
+        <v>989.9514618260871</v>
       </c>
       <c r="W41" t="n">
-        <v>1214.258878808628</v>
+        <v>989.9514618260871</v>
       </c>
       <c r="X41" t="n">
-        <v>1214.258878808628</v>
+        <v>989.9514618260871</v>
       </c>
       <c r="Y41" t="n">
-        <v>1214.258878808628</v>
+        <v>989.9514618260871</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>347.6726165185509</v>
+        <v>198.7382068572996</v>
       </c>
       <c r="C42" t="n">
-        <v>173.2195872374238</v>
+        <v>24.28517757617256</v>
       </c>
       <c r="D42" t="n">
         <v>24.28517757617256</v>
@@ -7488,19 +7488,19 @@
         <v>24.28517757617256</v>
       </c>
       <c r="J42" t="n">
-        <v>24.28517757617256</v>
+        <v>35.33850640097587</v>
       </c>
       <c r="K42" t="n">
-        <v>169.7979202008839</v>
+        <v>180.8512490256872</v>
       </c>
       <c r="L42" t="n">
-        <v>426.862156334412</v>
+        <v>437.9154851592153</v>
       </c>
       <c r="M42" t="n">
-        <v>727.3912288395475</v>
+        <v>738.4445576643508</v>
       </c>
       <c r="N42" t="n">
-        <v>1027.920301344683</v>
+        <v>1038.973630169486</v>
       </c>
       <c r="O42" t="n">
         <v>1214.258878808628</v>
@@ -7524,16 +7524,16 @@
         <v>986.0436389087135</v>
       </c>
       <c r="V42" t="n">
-        <v>986.0436389087135</v>
+        <v>750.8915306769709</v>
       </c>
       <c r="W42" t="n">
-        <v>731.806282180512</v>
+        <v>496.6541739487693</v>
       </c>
       <c r="X42" t="n">
-        <v>723.6482523035727</v>
+        <v>288.8026737432364</v>
       </c>
       <c r="Y42" t="n">
-        <v>515.8879535386188</v>
+        <v>198.7382068572996</v>
       </c>
     </row>
     <row r="43">
@@ -7588,19 +7588,19 @@
         <v>231.5436651853988</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.451570885996</v>
+        <v>231.5436651853988</v>
       </c>
       <c r="R43" t="n">
-        <v>153.451570885996</v>
+        <v>231.5436651853988</v>
       </c>
       <c r="S43" t="n">
-        <v>153.451570885996</v>
+        <v>231.5436651853988</v>
       </c>
       <c r="T43" t="n">
-        <v>153.451570885996</v>
+        <v>231.5436651853988</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28517757617256</v>
+        <v>231.5436651853988</v>
       </c>
       <c r="V43" t="n">
         <v>24.28517757617256</v>
@@ -7646,22 +7646,22 @@
         <v>4.824563089631235</v>
       </c>
       <c r="J44" t="n">
-        <v>4.824563089631235</v>
+        <v>12.79427951983572</v>
       </c>
       <c r="K44" t="n">
-        <v>64.52853132381777</v>
+        <v>62.11624977900217</v>
       </c>
       <c r="L44" t="n">
-        <v>64.52853132381777</v>
+        <v>121.8202180131887</v>
       </c>
       <c r="M44" t="n">
-        <v>121.8202180131887</v>
+        <v>181.5241862473752</v>
       </c>
       <c r="N44" t="n">
-        <v>121.8202180131887</v>
+        <v>241.2281544815618</v>
       </c>
       <c r="O44" t="n">
-        <v>181.5241862473752</v>
+        <v>241.2281544815618</v>
       </c>
       <c r="P44" t="n">
         <v>241.2281544815618</v>
@@ -7670,28 +7670,28 @@
         <v>241.2281544815618</v>
       </c>
       <c r="R44" t="n">
+        <v>241.2281544815618</v>
+      </c>
+      <c r="S44" t="n">
+        <v>241.2281544815618</v>
+      </c>
+      <c r="T44" t="n">
+        <v>241.2281544815618</v>
+      </c>
+      <c r="U44" t="n">
+        <v>241.2281544815618</v>
+      </c>
+      <c r="V44" t="n">
+        <v>241.2281544815618</v>
+      </c>
+      <c r="W44" t="n">
+        <v>241.2281544815618</v>
+      </c>
+      <c r="X44" t="n">
+        <v>241.2281544815618</v>
+      </c>
+      <c r="Y44" t="n">
         <v>187.5731649696023</v>
-      </c>
-      <c r="S44" t="n">
-        <v>187.5731649696023</v>
-      </c>
-      <c r="T44" t="n">
-        <v>187.5731649696023</v>
-      </c>
-      <c r="U44" t="n">
-        <v>187.5731649696023</v>
-      </c>
-      <c r="V44" t="n">
-        <v>187.5731649696023</v>
-      </c>
-      <c r="W44" t="n">
-        <v>187.5731649696023</v>
-      </c>
-      <c r="X44" t="n">
-        <v>187.5731649696023</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>126.6569643429453</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>119.3957532282477</v>
+        <v>58.47955260159071</v>
       </c>
       <c r="C45" t="n">
-        <v>58.47955260159071</v>
+        <v>4.824563089631235</v>
       </c>
       <c r="D45" t="n">
-        <v>58.47955260159071</v>
+        <v>4.824563089631235</v>
       </c>
       <c r="E45" t="n">
         <v>4.824563089631235</v>
@@ -7737,13 +7737,13 @@
         <v>64.52853132381777</v>
       </c>
       <c r="N45" t="n">
+        <v>64.52853132381777</v>
+      </c>
+      <c r="O45" t="n">
         <v>121.8202180131887</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>181.5241862473752</v>
-      </c>
-      <c r="P45" t="n">
-        <v>241.2281544815618</v>
       </c>
       <c r="Q45" t="n">
         <v>241.2281544815618</v>
@@ -7752,10 +7752,10 @@
         <v>241.2281544815618</v>
       </c>
       <c r="S45" t="n">
-        <v>241.2281544815618</v>
+        <v>180.3119538549047</v>
       </c>
       <c r="T45" t="n">
-        <v>241.2281544815618</v>
+        <v>180.3119538549047</v>
       </c>
       <c r="U45" t="n">
         <v>180.3119538549047</v>
@@ -7764,13 +7764,13 @@
         <v>180.3119538549047</v>
       </c>
       <c r="W45" t="n">
-        <v>180.3119538549047</v>
+        <v>119.3957532282477</v>
       </c>
       <c r="X45" t="n">
-        <v>180.3119538549047</v>
+        <v>58.47955260159071</v>
       </c>
       <c r="Y45" t="n">
-        <v>119.3957532282477</v>
+        <v>58.47955260159071</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>90.25064944554329</v>
+        <v>90.25064944554346</v>
       </c>
       <c r="C46" t="n">
-        <v>90.25064944554329</v>
+        <v>90.25064944554346</v>
       </c>
       <c r="D46" t="n">
-        <v>65.74076371628826</v>
+        <v>90.25064944554346</v>
       </c>
       <c r="E46" t="n">
-        <v>4.824563089631235</v>
+        <v>75.83082642638308</v>
       </c>
       <c r="F46" t="n">
-        <v>4.824563089631235</v>
+        <v>75.83082642638308</v>
       </c>
       <c r="G46" t="n">
-        <v>4.824563089631235</v>
+        <v>75.83082642638308</v>
       </c>
       <c r="H46" t="n">
-        <v>4.824563089631235</v>
+        <v>14.91462579972607</v>
       </c>
       <c r="I46" t="n">
-        <v>4.824563089631235</v>
+        <v>14.91462579972607</v>
       </c>
       <c r="J46" t="n">
-        <v>4.824563089631235</v>
+        <v>14.91462579972607</v>
       </c>
       <c r="K46" t="n">
         <v>4.824563089631235</v>
@@ -7816,40 +7816,40 @@
         <v>103.2873222197794</v>
       </c>
       <c r="N46" t="n">
-        <v>162.9912904539659</v>
+        <v>162.9912904539661</v>
       </c>
       <c r="O46" t="n">
-        <v>202.1212729710259</v>
+        <v>202.121272971026</v>
       </c>
       <c r="P46" t="n">
-        <v>212.0830506988573</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="Q46" t="n">
-        <v>212.0830506988573</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="R46" t="n">
-        <v>212.0830506988573</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="S46" t="n">
-        <v>212.0830506988573</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="T46" t="n">
-        <v>212.0830506988573</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="U46" t="n">
-        <v>212.0830506988573</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="V46" t="n">
-        <v>212.0830506988573</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="W46" t="n">
-        <v>151.1668500722003</v>
+        <v>212.0830506988575</v>
       </c>
       <c r="X46" t="n">
-        <v>90.25064944554329</v>
+        <v>151.1668500722005</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.25064944554329</v>
+        <v>90.25064944554346</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>280.3968896653711</v>
       </c>
       <c r="L2" t="n">
-        <v>296.0734535903778</v>
+        <v>293.6368055653115</v>
       </c>
       <c r="M2" t="n">
-        <v>288.216623822597</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>289.7201022169815</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
@@ -8061,22 +8061,22 @@
         <v>198.1484775947496</v>
       </c>
       <c r="L3" t="n">
-        <v>198.8614184002648</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>202.4410725424089</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>189.2121026786576</v>
       </c>
       <c r="O3" t="n">
-        <v>200.4666350397687</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>194.2814460347208</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.2888127064121</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,16 +8222,16 @@
         <v>296.0734535903778</v>
       </c>
       <c r="M5" t="n">
-        <v>288.216623822597</v>
+        <v>290.6532718476633</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>287.2834541919152</v>
       </c>
       <c r="O5" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>291.5400343756601</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,13 +8298,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>196.4247703751985</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>189.2121026786576</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>202.903283064835</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>277.9602416403048</v>
       </c>
       <c r="L8" t="n">
         <v>296.0734535903778</v>
       </c>
       <c r="M8" t="n">
-        <v>288.216623822597</v>
+        <v>290.6532718476633</v>
       </c>
       <c r="N8" t="n">
         <v>289.7201022169815</v>
       </c>
       <c r="O8" t="n">
-        <v>290.4052500420773</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8541,13 +8541,13 @@
         <v>200.0044245173426</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>191.6487507037239</v>
       </c>
       <c r="O9" t="n">
         <v>202.903283064835</v>
       </c>
       <c r="P9" t="n">
-        <v>194.2814460347208</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>200.2888127064121</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>161.0463965557056</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>190.1157729340966</v>
+        <v>250.4228115544872</v>
       </c>
       <c r="L11" t="n">
         <v>258.8879592045337</v>
@@ -8699,16 +8699,16 @@
         <v>188.9702058453147</v>
       </c>
       <c r="N11" t="n">
-        <v>247.6745674546785</v>
+        <v>187.367528834288</v>
       </c>
       <c r="O11" t="n">
         <v>250.7028438370307</v>
       </c>
       <c r="P11" t="n">
-        <v>255.2183012022177</v>
+        <v>231.7124940329605</v>
       </c>
       <c r="Q11" t="n">
-        <v>196.8594021070156</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8772,22 +8772,22 @@
         <v>177.78970732518</v>
       </c>
       <c r="L12" t="n">
-        <v>111.1795007241379</v>
+        <v>171.4865393445285</v>
       </c>
       <c r="M12" t="n">
-        <v>156.8942532380152</v>
+        <v>110.1888412536033</v>
       </c>
       <c r="N12" t="n">
-        <v>158.8580638412634</v>
+        <v>145.2564372052847</v>
       </c>
       <c r="O12" t="n">
         <v>112.5991721459589</v>
       </c>
       <c r="P12" t="n">
-        <v>170.2061509265773</v>
+        <v>109.8991123061867</v>
       </c>
       <c r="Q12" t="n">
-        <v>123.8880768829481</v>
+        <v>184.1951155033387</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,16 +8933,16 @@
         <v>258.8879592045337</v>
       </c>
       <c r="M14" t="n">
-        <v>223.3347892713817</v>
+        <v>249.2772444657053</v>
       </c>
       <c r="N14" t="n">
-        <v>187.367528834288</v>
+        <v>221.732112260355</v>
       </c>
       <c r="O14" t="n">
         <v>190.3958052166402</v>
       </c>
       <c r="P14" t="n">
-        <v>257.654949227284</v>
+        <v>197.3479106068934</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>114.9260567294964</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.78970732518</v>
+        <v>117.4826687047894</v>
       </c>
       <c r="L15" t="n">
         <v>111.1795007241379</v>
       </c>
       <c r="M15" t="n">
-        <v>170.4958798739939</v>
+        <v>156.8942532380152</v>
       </c>
       <c r="N15" t="n">
-        <v>156.4214158161971</v>
+        <v>158.8580638412634</v>
       </c>
       <c r="O15" t="n">
-        <v>112.5991721459589</v>
+        <v>172.9062107663495</v>
       </c>
       <c r="P15" t="n">
         <v>109.8991123061867</v>
@@ -9167,16 +9167,16 @@
         <v>250.4228115544872</v>
       </c>
       <c r="L17" t="n">
-        <v>258.8879592045337</v>
+        <v>198.5809205841431</v>
       </c>
       <c r="M17" t="n">
-        <v>223.3347892713817</v>
+        <v>249.2772444657053</v>
       </c>
       <c r="N17" t="n">
-        <v>187.367528834288</v>
+        <v>247.6745674546785</v>
       </c>
       <c r="O17" t="n">
-        <v>250.7028438370307</v>
+        <v>224.7603886427072</v>
       </c>
       <c r="P17" t="n">
         <v>197.3479106068934</v>
@@ -9243,25 +9243,25 @@
         <v>114.9260567294964</v>
       </c>
       <c r="K18" t="n">
-        <v>177.78970732518</v>
+        <v>117.4826687047894</v>
       </c>
       <c r="L18" t="n">
-        <v>169.0498913194622</v>
+        <v>111.1795007241379</v>
       </c>
       <c r="M18" t="n">
-        <v>170.4958798739939</v>
+        <v>110.1888412536033</v>
       </c>
       <c r="N18" t="n">
-        <v>98.55102522087283</v>
+        <v>156.4214158161971</v>
       </c>
       <c r="O18" t="n">
-        <v>112.5991721459589</v>
+        <v>172.9062107663495</v>
       </c>
       <c r="P18" t="n">
         <v>170.2061509265773</v>
       </c>
       <c r="Q18" t="n">
-        <v>123.8880768829481</v>
+        <v>184.1951155033387</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>114.9260567294964</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,16 +9486,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>413.7535609557603</v>
+        <v>413.7535609557604</v>
       </c>
       <c r="N21" t="n">
-        <v>309.0733831093757</v>
+        <v>402.1157449230299</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>112.5991721459589</v>
       </c>
       <c r="P21" t="n">
-        <v>109.8991123061867</v>
+        <v>286.9549190123906</v>
       </c>
       <c r="Q21" t="n">
         <v>123.8880768829481</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>117.4826687047894</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>111.1795007241379</v>
       </c>
       <c r="M24" t="n">
-        <v>247.9651325052325</v>
+        <v>360.6434087767647</v>
       </c>
       <c r="N24" t="n">
-        <v>402.1157449230299</v>
+        <v>402.11574492303</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>117.4826687047894</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>118.8627060000303</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>413.7535609557603</v>
+        <v>413.7535609557604</v>
       </c>
       <c r="N27" t="n">
-        <v>402.1157449230299</v>
+        <v>370.6078952954835</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>112.5991721459589</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>123.8880768829481</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>117.4826687047894</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>327.4263623337807</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>413.7535609557603</v>
+        <v>404.5472838996003</v>
       </c>
       <c r="N30" t="n">
-        <v>402.1157449230299</v>
+        <v>98.55102522087283</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>109.8991123061867</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>123.8880768829481</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,25 +10425,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>114.9260567294964</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>111.1795007241379</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>413.7535609557603</v>
+        <v>110.1888412536033</v>
       </c>
       <c r="N33" t="n">
-        <v>402.1157449230299</v>
+        <v>392.9094678668698</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>276.5175950718537</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>123.8880768829481</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>114.9260567294964</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>117.4826687047894</v>
@@ -10671,7 +10671,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>413.7535609557603</v>
+        <v>161.7759216523315</v>
       </c>
       <c r="N36" t="n">
         <v>402.1157449230299</v>
@@ -10680,10 +10680,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>163.8393188003216</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>123.8880768829481</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10905,16 +10905,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>350.4974742868251</v>
       </c>
       <c r="M39" t="n">
         <v>413.7535609557603</v>
       </c>
       <c r="N39" t="n">
-        <v>100.5097267756252</v>
+        <v>402.1157449230299</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>112.5991721459589</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>114.9260567294964</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,7 +11151,7 @@
         <v>402.1157449230299</v>
       </c>
       <c r="O42" t="n">
-        <v>300.8199574630754</v>
+        <v>289.6549788521628</v>
       </c>
       <c r="P42" t="n">
         <v>109.8991123061867</v>
@@ -11294,25 +11294,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>161.0463965557056</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>250.4228115544871</v>
+        <v>239.9359449130527</v>
       </c>
       <c r="L44" t="n">
-        <v>198.5809205841431</v>
+        <v>258.8879592045336</v>
       </c>
       <c r="M44" t="n">
-        <v>246.8405964406389</v>
+        <v>249.2772444657051</v>
       </c>
       <c r="N44" t="n">
-        <v>187.367528834288</v>
+        <v>247.6745674546784</v>
       </c>
       <c r="O44" t="n">
-        <v>250.7028438370306</v>
+        <v>190.3958052166402</v>
       </c>
       <c r="P44" t="n">
-        <v>257.6549492272839</v>
+        <v>197.3479106068934</v>
       </c>
       <c r="Q44" t="n">
         <v>196.8594021070156</v>
@@ -11385,16 +11385,16 @@
         <v>110.1888412536033</v>
       </c>
       <c r="N45" t="n">
-        <v>156.421415816197</v>
+        <v>98.55102522087284</v>
       </c>
       <c r="O45" t="n">
-        <v>172.9062107663494</v>
+        <v>170.4695627412831</v>
       </c>
       <c r="P45" t="n">
         <v>170.2061509265772</v>
       </c>
       <c r="Q45" t="n">
-        <v>123.8880768829481</v>
+        <v>184.1951155033386</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11464,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>171.8177168444616</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>322.42680304309</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22592,7 +22592,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>89.5620793207591</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22601,19 +22601,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>191.0386142874459</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>267.4452198497443</v>
+        <v>274.6338188532949</v>
       </c>
       <c r="W2" t="n">
-        <v>296.122529100573</v>
+        <v>288.9339300970224</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>325.930900035663</v>
       </c>
     </row>
     <row r="3">
@@ -22623,13 +22623,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>106.2261450294768</v>
       </c>
       <c r="C3" t="n">
-        <v>112.4014603679252</v>
+        <v>119.5900593714757</v>
       </c>
       <c r="D3" t="n">
-        <v>87.13802694424817</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22638,7 +22638,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>77.03647854282005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22677,7 +22677,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>147.0462890779816</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22689,10 +22689,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4659465830869</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>145.3756571569138</v>
       </c>
     </row>
     <row r="4">
@@ -22720,13 +22720,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>101.920133887049</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>95.1434363068677</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>80.78628977208588</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22744,16 +22744,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>25.85500463130381</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>116.9863527567789</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>214.1651484274919</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22784,13 +22784,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>312.1544521541675</v>
       </c>
       <c r="D5" t="n">
-        <v>301.5646020038429</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>321.6233314518712</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22847,7 +22847,7 @@
         <v>288.9339300970224</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>309.4240620580784</v>
       </c>
       <c r="Y5" t="n">
         <v>325.930900035663</v>
@@ -22872,13 +22872,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>84.76217377299329</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>77.03647854282005</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>59.11700461965643</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22908,13 +22908,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>39.85079553225255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>111.3761324834472</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>147.0462890779816</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22957,7 +22957,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>149.6542821628527</v>
       </c>
       <c r="I7" t="n">
         <v>95.1434363068677</v>
@@ -22966,7 +22966,7 @@
         <v>33.0521414962822</v>
       </c>
       <c r="K7" t="n">
-        <v>9.696601481295952</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23024,10 +23024,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>294.3760030002924</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>328.8119304554218</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23069,10 +23069,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>148.7130309658548</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>162.7888109437408</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23081,13 +23081,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>288.9339300970224</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>309.4240620580784</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>333.1194990392136</v>
       </c>
     </row>
     <row r="9">
@@ -23097,16 +23097,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>106.2261450294768</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>94.32662594779873</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>97.33804183501036</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23118,7 +23118,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>29.0895942310245</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.85079553225255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>118.5647314869978</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>165.6343434605842</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23163,7 +23163,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4659465830869</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23258,7 +23258,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>304.965853150617</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.0670991938522</v>
+        <v>361.9486595770122</v>
       </c>
       <c r="H11" t="n">
-        <v>337.0615711579291</v>
+        <v>276.7545325375385</v>
       </c>
       <c r="I11" t="n">
-        <v>201.3914431891486</v>
+        <v>141.0844045687581</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>81.94876262502555</v>
+        <v>135.0672022418656</v>
       </c>
       <c r="S11" t="n">
-        <v>143.3434227196217</v>
+        <v>203.6504613400123</v>
       </c>
       <c r="T11" t="n">
         <v>222.0643428127157</v>
@@ -23318,10 +23318,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>288.9339300970224</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>309.4240620580784</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>113.4147440330273</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23382,22 +23382,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>92.32996246467216</v>
+        <v>32.02292384428159</v>
       </c>
       <c r="S12" t="n">
-        <v>169.3413346670932</v>
+        <v>109.0342960467026</v>
       </c>
       <c r="T12" t="n">
-        <v>146.538107806348</v>
+        <v>139.3495088027974</v>
       </c>
       <c r="U12" t="n">
-        <v>165.6260488805249</v>
+        <v>225.9330875009155</v>
       </c>
       <c r="V12" t="n">
-        <v>172.4935485290347</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>191.387944540529</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>119.5249415615467</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>106.9397824782372</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>88.30843439782177</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,19 +23428,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>153.6096553307018</v>
+        <v>167.8852801196702</v>
       </c>
       <c r="H13" t="n">
-        <v>100.9803715640016</v>
+        <v>161.2874101843922</v>
       </c>
       <c r="I13" t="n">
-        <v>91.96477192584447</v>
+        <v>152.2718105462351</v>
       </c>
       <c r="J13" t="n">
-        <v>25.57920531393106</v>
+        <v>85.88624393432164</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>9.989162082993888</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>194.3198664801325</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>322.42680304309</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>304.965853150617</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>321.6233314518712</v>
       </c>
       <c r="F14" t="n">
-        <v>346.5690071213209</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>361.9486595770122</v>
+        <v>415.0670991938522</v>
       </c>
       <c r="H14" t="n">
-        <v>276.7545325375385</v>
+        <v>337.0615711579291</v>
       </c>
       <c r="I14" t="n">
-        <v>141.0844045687581</v>
+        <v>201.3914431891486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>316.612661061629</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23571,16 +23571,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>106.2261450294768</v>
+        <v>113.4147440330273</v>
       </c>
       <c r="C15" t="n">
-        <v>112.4014603679252</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>87.13802694424817</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>104.5266408385609</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23592,7 +23592,7 @@
         <v>111.01779988379</v>
       </c>
       <c r="I15" t="n">
-        <v>85.05580262037721</v>
+        <v>24.74876399998663</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23634,13 +23634,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>191.387944540529</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>145.3756571569138</v>
       </c>
     </row>
     <row r="16">
@@ -23665,19 +23665,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.8852801196702</v>
+        <v>153.6096553307018</v>
       </c>
       <c r="H16" t="n">
-        <v>161.2874101843922</v>
+        <v>100.9803715640016</v>
       </c>
       <c r="I16" t="n">
-        <v>152.2718105462351</v>
+        <v>91.96477192584447</v>
       </c>
       <c r="J16" t="n">
-        <v>85.88624393432164</v>
+        <v>25.57920531393106</v>
       </c>
       <c r="K16" t="n">
-        <v>9.989162082993888</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,16 +23695,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.00413473601818</v>
+        <v>77.31117335640876</v>
       </c>
       <c r="R16" t="n">
-        <v>112.233730619977</v>
+        <v>172.5407692403676</v>
       </c>
       <c r="S16" t="n">
-        <v>161.8675099551483</v>
+        <v>222.1745485755389</v>
       </c>
       <c r="T16" t="n">
-        <v>203.2291785360408</v>
+        <v>227.4939654080031</v>
       </c>
       <c r="U16" t="n">
         <v>286.313263943466</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>322.42680304309</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23738,19 +23738,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>321.6233314518712</v>
       </c>
       <c r="F17" t="n">
-        <v>353.7576061248714</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>415.0670991938522</v>
       </c>
       <c r="H17" t="n">
-        <v>337.0615711579291</v>
+        <v>283.9431315410891</v>
       </c>
       <c r="I17" t="n">
-        <v>141.0844045687581</v>
+        <v>201.3914431891486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>251.3268018421339</v>
       </c>
       <c r="V17" t="n">
-        <v>267.4452198497443</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,7 +23808,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>106.2261450294768</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23817,16 +23817,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>97.33804183501036</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>84.76217377299329</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>76.91040092591857</v>
+        <v>137.2174395463092</v>
       </c>
       <c r="H18" t="n">
-        <v>57.89936026695002</v>
+        <v>111.01779988379</v>
       </c>
       <c r="I18" t="n">
         <v>85.05580262037721</v>
@@ -23856,10 +23856,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>92.32996246467216</v>
+        <v>32.02292384428159</v>
       </c>
       <c r="S18" t="n">
-        <v>169.3413346670932</v>
+        <v>116.2228950502532</v>
       </c>
       <c r="T18" t="n">
         <v>199.656547423188</v>
@@ -23877,7 +23877,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>145.3756571569138</v>
       </c>
     </row>
     <row r="19">
@@ -23890,19 +23890,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>142.9820342266656</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>122.1691757746069</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>85.11400940254066</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>107.5782414992796</v>
+        <v>167.8852801196702</v>
       </c>
       <c r="H19" t="n">
         <v>161.2874101843922</v>
@@ -23935,7 +23935,7 @@
         <v>77.31117335640876</v>
       </c>
       <c r="R19" t="n">
-        <v>172.5407692403676</v>
+        <v>112.233730619977</v>
       </c>
       <c r="S19" t="n">
         <v>161.8675099551483</v>
@@ -23947,7 +23947,7 @@
         <v>286.313263943466</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>191.8306047034374</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,25 +23966,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>79.16912196132353</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>51.11832191852591</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>249.6177672004676</v>
+        <v>78.36565037010467</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>103.3113260395543</v>
       </c>
       <c r="G20" t="n">
         <v>415.0670991938522</v>
       </c>
       <c r="H20" t="n">
-        <v>337.0615711579291</v>
+        <v>291.746108856985</v>
       </c>
       <c r="I20" t="n">
         <v>201.3914431891486</v>
@@ -24014,19 +24014,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>135.0672022418656</v>
       </c>
       <c r="S20" t="n">
         <v>203.6504613400123</v>
       </c>
       <c r="T20" t="n">
-        <v>222.0643428127157</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3268018421339</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>24.1875387679778</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.67321895389654</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,25 +24048,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>170.5512063828673</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.2174395463092</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>111.01779988379</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>85.05580262037721</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24093,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>92.32996246467216</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>169.3413346670932</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.656547423188</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9330875009155</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,10 +24111,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>33.95124395378727</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24178,10 +24178,10 @@
         <v>222.1745485755389</v>
       </c>
       <c r="T22" t="n">
-        <v>227.4939654080031</v>
+        <v>22.30806267486912</v>
       </c>
       <c r="U22" t="n">
-        <v>81.12736121033205</v>
+        <v>286.313263943466</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24212,10 +24212,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>78.36565037010473</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>103.3113260395544</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.0670991938522</v>
@@ -24251,25 +24251,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>135.0672022418656</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>203.6504613400123</v>
       </c>
       <c r="T23" t="n">
-        <v>222.0643428127157</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3268018421339</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>24.1875387679778</v>
       </c>
       <c r="W23" t="n">
-        <v>45.67624901525596</v>
+        <v>83.19007109615416</v>
       </c>
       <c r="X23" t="n">
-        <v>102.3512955648092</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>74.06107466972628</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,13 +24294,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.2174395463092</v>
       </c>
       <c r="H24" t="n">
-        <v>111.01779988379</v>
+        <v>107.523286209048</v>
       </c>
       <c r="I24" t="n">
         <v>85.05580262037721</v>
@@ -24333,13 +24333,13 @@
         <v>92.32996246467216</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>169.3413346670932</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.656547423188</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9330875009155</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24348,7 +24348,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24412,7 +24412,7 @@
         <v>172.5407692403676</v>
       </c>
       <c r="S25" t="n">
-        <v>16.98864584240494</v>
+        <v>222.1745485755389</v>
       </c>
       <c r="T25" t="n">
         <v>227.4939654080031</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>81.33709560345702</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24446,7 +24446,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>51.11832191852591</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24455,13 +24455,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.0670991938522</v>
+        <v>147.6872940801923</v>
       </c>
       <c r="H26" t="n">
         <v>337.0615711579291</v>
       </c>
       <c r="I26" t="n">
-        <v>103.8380630281813</v>
+        <v>201.3914431891486</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,22 +24494,22 @@
         <v>203.6504613400123</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>222.0643428127157</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3268018421339</v>
       </c>
       <c r="V26" t="n">
-        <v>24.18753876797786</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>45.67624901525591</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>66.16638097631193</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>82.67321895389648</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24531,7 +24531,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24540,7 +24540,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>22.70243061494102</v>
+        <v>85.05580262037721</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24573,13 +24573,13 @@
         <v>169.3413346670932</v>
       </c>
       <c r="T27" t="n">
-        <v>199.656547423188</v>
+        <v>72.57644290908847</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9330875009155</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>337.4183793625364</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,19 +24686,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>78.36565037010473</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>111.5023794916951</v>
+        <v>415.0670991938522</v>
       </c>
       <c r="H29" t="n">
         <v>33.49685145577206</v>
       </c>
       <c r="I29" t="n">
-        <v>201.3914431891486</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,22 +24725,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>135.0672022418656</v>
+        <v>16.84092245733122</v>
       </c>
       <c r="S29" t="n">
         <v>203.6504613400123</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.0643428127157</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3268018421339</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>45.67624901525596</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,13 +24756,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>60.87541325217393</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24771,13 +24771,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>109.3481083684101</v>
+        <v>137.2174395463092</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>111.01779988379</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>85.05580262037721</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24810,7 +24810,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>199.656547423188</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9330875009155</v>
@@ -24819,7 +24819,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24856,7 +24856,7 @@
         <v>161.2874101843922</v>
       </c>
       <c r="I31" t="n">
-        <v>152.2718105462351</v>
+        <v>114.3327289117287</v>
       </c>
       <c r="J31" t="n">
         <v>85.88624393432164</v>
@@ -24880,10 +24880,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>77.31117335640876</v>
       </c>
       <c r="R31" t="n">
-        <v>44.66603986364214</v>
+        <v>172.5407692403676</v>
       </c>
       <c r="S31" t="n">
         <v>222.1745485755389</v>
@@ -24917,10 +24917,10 @@
         <v>79.16912196132353</v>
       </c>
       <c r="C32" t="n">
-        <v>61.7081720688505</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>122.456180386744</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24965,7 +24965,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>71.33785846821803</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>222.0643428127157</v>
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25005,16 +25005,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.2174395463092</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>30.36829903476647</v>
+        <v>111.01779988379</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>85.05580262037721</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25047,22 +25047,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>199.656547423188</v>
+        <v>50.03610258486023</v>
       </c>
       <c r="U33" t="n">
         <v>225.9330875009155</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25090,16 +25090,16 @@
         <v>167.8852801196702</v>
       </c>
       <c r="H34" t="n">
-        <v>161.2874101843922</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>152.2718105462351</v>
+        <v>108.3733179974932</v>
       </c>
       <c r="J34" t="n">
         <v>85.88624393432164</v>
       </c>
       <c r="K34" t="n">
-        <v>9.989162082993888</v>
+        <v>9.989162082993891</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25117,10 +25117,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>77.31117335640876</v>
       </c>
       <c r="R34" t="n">
-        <v>44.66603986364214</v>
+        <v>172.5407692403676</v>
       </c>
       <c r="S34" t="n">
         <v>222.1745485755389</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>79.16912196132353</v>
       </c>
       <c r="C35" t="n">
         <v>61.7081720688505</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.51382208089812</v>
+        <v>89.75173994092142</v>
       </c>
       <c r="S35" t="n">
         <v>203.6504613400123</v>
@@ -25208,7 +25208,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3268018421339</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25230,28 +25230,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>141.1047827914854</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>76.09759347406117</v>
       </c>
       <c r="G36" t="n">
-        <v>137.2174395463092</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>111.01779988379</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>85.05580262037721</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>92.32996246467216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>169.3413346670932</v>
       </c>
       <c r="T36" t="n">
         <v>199.656547423188</v>
@@ -25293,10 +25293,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25336,7 +25336,7 @@
         <v>85.88624393432164</v>
       </c>
       <c r="K37" t="n">
-        <v>9.989162082993888</v>
+        <v>9.989162082993891</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>222.1745485755389</v>
       </c>
       <c r="T37" t="n">
-        <v>22.30806267486892</v>
+        <v>227.4939654080031</v>
       </c>
       <c r="U37" t="n">
         <v>286.313263943466</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>13.39875061896061</v>
       </c>
     </row>
     <row r="38">
@@ -25394,16 +25394,16 @@
         <v>61.7081720688505</v>
       </c>
       <c r="D38" t="n">
-        <v>51.11832191852591</v>
+        <v>88.63214399942404</v>
       </c>
       <c r="E38" t="n">
-        <v>78.36565037010473</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>399.0140959223262</v>
+        <v>415.0670991938522</v>
       </c>
       <c r="H38" t="n">
         <v>337.0615711579291</v>
@@ -25436,13 +25436,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>135.0672022418656</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>203.6504613400123</v>
       </c>
       <c r="T38" t="n">
-        <v>222.0643428127157</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25476,7 +25476,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>16.83211722455081</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25488,7 +25488,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>85.05580262037721</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,7 +25518,7 @@
         <v>92.32996246467216</v>
       </c>
       <c r="S39" t="n">
-        <v>169.3413346670932</v>
+        <v>107.8901351012719</v>
       </c>
       <c r="T39" t="n">
         <v>199.656547423188</v>
@@ -25530,13 +25530,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8852801196702</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>161.2874101843922</v>
+        <v>123.9867875709282</v>
       </c>
       <c r="I40" t="n">
         <v>152.2718105462351</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>81.33709560345682</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,10 +25628,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>61.7081720688505</v>
       </c>
       <c r="D41" t="n">
-        <v>87.30323650702314</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>78.36565037010473</v>
@@ -25640,10 +25640,10 @@
         <v>103.3113260395544</v>
       </c>
       <c r="G41" t="n">
-        <v>111.5023794916951</v>
+        <v>415.0670991938522</v>
       </c>
       <c r="H41" t="n">
-        <v>337.0615711579291</v>
+        <v>291.746108856985</v>
       </c>
       <c r="I41" t="n">
         <v>201.3914431891486</v>
@@ -25679,7 +25679,7 @@
         <v>203.6504613400123</v>
       </c>
       <c r="T41" t="n">
-        <v>222.0643428127157</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3268018421339</v>
@@ -25704,13 +25704,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25764,16 +25764,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>197.6965356253076</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>116.5188735602269</v>
       </c>
     </row>
     <row r="43">
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>77.31117335640876</v>
       </c>
       <c r="R43" t="n">
         <v>172.5407692403676</v>
@@ -25840,10 +25840,10 @@
         <v>227.4939654080031</v>
       </c>
       <c r="U43" t="n">
-        <v>158.4385345667408</v>
+        <v>286.313263943466</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>46.95174059069402</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>322.4268030430901</v>
       </c>
       <c r="C44" t="n">
         <v>304.9658531506171</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>81.94876262502569</v>
+        <v>135.0672022418656</v>
       </c>
       <c r="S44" t="n">
         <v>203.6504613400123</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>325.9309000356632</v>
+        <v>333.1194990392137</v>
       </c>
     </row>
     <row r="45">
@@ -25944,13 +25944,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>112.4014603679253</v>
+        <v>119.5900593714759</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>104.5266408385611</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25992,25 +25992,25 @@
         <v>92.32996246467216</v>
       </c>
       <c r="S45" t="n">
-        <v>169.3413346670932</v>
+        <v>109.0342960467027</v>
       </c>
       <c r="T45" t="n">
         <v>199.656547423188</v>
       </c>
       <c r="U45" t="n">
-        <v>165.6260488805251</v>
+        <v>225.9330875009155</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>191.3879445405292</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>145.465946583087</v>
       </c>
       <c r="Y45" t="n">
-        <v>145.3756571569139</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26026,10 +26026,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3506861462499</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>86.12692402617873</v>
+        <v>132.1583378576004</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>167.8852801196702</v>
       </c>
       <c r="H46" t="n">
-        <v>161.2874101843922</v>
+        <v>100.9803715640018</v>
       </c>
       <c r="I46" t="n">
         <v>152.2718105462351</v>
@@ -26047,7 +26047,7 @@
         <v>85.88624393432164</v>
       </c>
       <c r="K46" t="n">
-        <v>9.989162082993891</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>226.2159597162006</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>165.4026167686467</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>158.2776147317043</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>357920.791817323</v>
+        <v>357920.7918173228</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>363036.1432492583</v>
+        <v>363036.1432492582</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>363036.1432492582</v>
+        <v>363036.1432492583</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>363036.1432492582</v>
+        <v>363036.1432492583</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>530445.061029191</v>
+        <v>530445.0610291911</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>530445.061029191</v>
+        <v>530445.0610291909</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>530445.0610291911</v>
+        <v>530445.061029191</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>530445.061029191</v>
+        <v>530445.0610291909</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>363036.1432492583</v>
+        <v>363036.1432492581</v>
       </c>
     </row>
   </sheetData>
@@ -26320,7 +26320,7 @@
         <v>117212.9589252981</v>
       </c>
       <c r="E2" t="n">
-        <v>120939.7368485056</v>
+        <v>120939.7368485057</v>
       </c>
       <c r="F2" t="n">
         <v>120939.7368485056</v>
@@ -26329,7 +26329,7 @@
         <v>120939.7368485056</v>
       </c>
       <c r="H2" t="n">
-        <v>175646.5308351114</v>
+        <v>175646.5308351113</v>
       </c>
       <c r="I2" t="n">
         <v>175646.5308351113</v>
@@ -26338,13 +26338,13 @@
         <v>175646.5308351114</v>
       </c>
       <c r="K2" t="n">
-        <v>175646.5308351113</v>
+        <v>175646.5308351114</v>
       </c>
       <c r="L2" t="n">
         <v>175646.5308351113</v>
       </c>
       <c r="M2" t="n">
-        <v>175646.5308351114</v>
+        <v>175646.5308351113</v>
       </c>
       <c r="N2" t="n">
         <v>175646.5308351113</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20210.27570358115</v>
+        <v>20210.27570358117</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43549.89890374617</v>
+        <v>43345.1245783893</v>
       </c>
       <c r="C4" t="n">
-        <v>43549.89890374618</v>
+        <v>43345.12457838932</v>
       </c>
       <c r="D4" t="n">
-        <v>43549.89890374618</v>
+        <v>43345.12457838932</v>
       </c>
       <c r="E4" t="n">
-        <v>38641.31972048138</v>
+        <v>38459.66406859572</v>
       </c>
       <c r="F4" t="n">
-        <v>38641.31972048138</v>
+        <v>38459.66406859572</v>
       </c>
       <c r="G4" t="n">
-        <v>38641.31972048138</v>
+        <v>38459.66406859572</v>
       </c>
       <c r="H4" t="n">
-        <v>59479.21197758969</v>
+        <v>59200.29555869271</v>
       </c>
       <c r="I4" t="n">
-        <v>59479.2119775897</v>
+        <v>59200.29555869271</v>
       </c>
       <c r="J4" t="n">
-        <v>59479.21197758969</v>
+        <v>59200.29555869271</v>
       </c>
       <c r="K4" t="n">
-        <v>59479.21197758969</v>
+        <v>59200.29555869271</v>
       </c>
       <c r="L4" t="n">
-        <v>59479.21197758969</v>
+        <v>59200.29555869272</v>
       </c>
       <c r="M4" t="n">
-        <v>59479.2119775897</v>
+        <v>59200.29555869271</v>
       </c>
       <c r="N4" t="n">
-        <v>59479.21197758969</v>
+        <v>59200.29555869271</v>
       </c>
       <c r="O4" t="n">
-        <v>59479.21197758969</v>
+        <v>59200.29555869271</v>
       </c>
       <c r="P4" t="n">
-        <v>38641.31972048136</v>
+        <v>38459.66406859571</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16158.51636985098</v>
+        <v>16363.29069520785</v>
       </c>
       <c r="C6" t="n">
-        <v>36368.79207343213</v>
+        <v>36573.56639878899</v>
       </c>
       <c r="D6" t="n">
-        <v>36368.79207343213</v>
+        <v>36573.56639878899</v>
       </c>
       <c r="E6" t="n">
-        <v>30262.44858255758</v>
+        <v>30444.10423444326</v>
       </c>
       <c r="F6" t="n">
-        <v>77353.94147316787</v>
+        <v>77535.59712505355</v>
       </c>
       <c r="G6" t="n">
-        <v>77353.94147316787</v>
+        <v>77535.59712505357</v>
       </c>
       <c r="H6" t="n">
-        <v>30799.66451790355</v>
+        <v>31078.58093680048</v>
       </c>
       <c r="I6" t="n">
-        <v>96432.77619289386</v>
+        <v>96711.69261179082</v>
       </c>
       <c r="J6" t="n">
-        <v>80653.80138010046</v>
+        <v>80932.71779899746</v>
       </c>
       <c r="K6" t="n">
-        <v>96432.77619289389</v>
+        <v>96711.69261179096</v>
       </c>
       <c r="L6" t="n">
-        <v>96432.77619289389</v>
+        <v>96711.69261179087</v>
       </c>
       <c r="M6" t="n">
-        <v>96432.77619289391</v>
+        <v>96711.69261179087</v>
       </c>
       <c r="N6" t="n">
-        <v>96432.77619289389</v>
+        <v>96711.69261179087</v>
       </c>
       <c r="O6" t="n">
-        <v>96432.77619289389</v>
+        <v>96711.69261179087</v>
       </c>
       <c r="P6" t="n">
-        <v>77353.94147316791</v>
+        <v>77535.59712505358</v>
       </c>
     </row>
   </sheetData>
@@ -26765,10 +26765,10 @@
         <v>58.6150324191101</v>
       </c>
       <c r="L3" t="n">
-        <v>58.6150324191101</v>
+        <v>58.61503241911009</v>
       </c>
       <c r="M3" t="n">
-        <v>58.6150324191101</v>
+        <v>58.61503241911009</v>
       </c>
       <c r="N3" t="n">
         <v>58.61503241911009</v>
@@ -26805,13 +26805,13 @@
         <v>60.30703862039058</v>
       </c>
       <c r="H4" t="n">
-        <v>303.564719702157</v>
+        <v>303.5647197021571</v>
       </c>
       <c r="I4" t="n">
-        <v>303.564719702157</v>
+        <v>303.5647197021571</v>
       </c>
       <c r="J4" t="n">
-        <v>303.564719702157</v>
+        <v>303.5647197021571</v>
       </c>
       <c r="K4" t="n">
         <v>303.564719702157</v>
@@ -33409,34 +33409,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2356383212828545</v>
+        <v>0.2356383212828544</v>
       </c>
       <c r="H32" t="n">
         <v>2.413230957838034</v>
       </c>
       <c r="I32" t="n">
-        <v>9.084446381257257</v>
+        <v>9.084446381257255</v>
       </c>
       <c r="J32" t="n">
-        <v>19.99950797098069</v>
+        <v>19.99950797098068</v>
       </c>
       <c r="K32" t="n">
-        <v>29.97407811088393</v>
+        <v>29.97407811088392</v>
       </c>
       <c r="L32" t="n">
-        <v>37.18549438584409</v>
+        <v>37.18549438584408</v>
       </c>
       <c r="M32" t="n">
         <v>41.37602738195805</v>
       </c>
       <c r="N32" t="n">
-        <v>42.04553476230297</v>
+        <v>42.04553476230296</v>
       </c>
       <c r="O32" t="n">
-        <v>39.70240620504658</v>
+        <v>39.70240620504657</v>
       </c>
       <c r="P32" t="n">
-        <v>33.88508514837611</v>
+        <v>33.8850851483761</v>
       </c>
       <c r="Q32" t="n">
         <v>25.44628776743387</v>
@@ -33445,7 +33445,7 @@
         <v>14.80191569928412</v>
       </c>
       <c r="S32" t="n">
-        <v>5.369608246233052</v>
+        <v>5.369608246233051</v>
       </c>
       <c r="T32" t="n">
         <v>1.031506751415696</v>
@@ -33491,10 +33491,10 @@
         <v>0.1260776169014821</v>
       </c>
       <c r="H33" t="n">
-        <v>1.21764435270642</v>
+        <v>1.217644352706419</v>
       </c>
       <c r="I33" t="n">
-        <v>4.340830231037871</v>
+        <v>4.34083023103787</v>
       </c>
       <c r="J33" t="n">
         <v>11.91156993717029</v>
@@ -33506,31 +33506,31 @@
         <v>27.37487905573628</v>
       </c>
       <c r="M33" t="n">
-        <v>31.945192668415</v>
+        <v>31.94519266841499</v>
       </c>
       <c r="N33" t="n">
-        <v>32.79068686246048</v>
+        <v>32.79068686246046</v>
       </c>
       <c r="O33" t="n">
         <v>29.99707229848552</v>
       </c>
       <c r="P33" t="n">
-        <v>24.07529510814355</v>
+        <v>24.07529510814354</v>
       </c>
       <c r="Q33" t="n">
         <v>16.0936972030734</v>
       </c>
       <c r="R33" t="n">
-        <v>7.827871687970971</v>
+        <v>7.827871687970969</v>
       </c>
       <c r="S33" t="n">
         <v>2.341836436744633</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5081812716336053</v>
+        <v>0.5081812716336052</v>
       </c>
       <c r="U33" t="n">
-        <v>0.008294580059308037</v>
+        <v>0.008294580059308035</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,19 +33570,19 @@
         <v>0.1056992387885592</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9397623230473724</v>
+        <v>0.9397623230473722</v>
       </c>
       <c r="I34" t="n">
-        <v>3.178664381023217</v>
+        <v>3.178664381023216</v>
       </c>
       <c r="J34" t="n">
-        <v>7.472936182351134</v>
+        <v>7.472936182351132</v>
       </c>
       <c r="K34" t="n">
         <v>12.28032974288896</v>
       </c>
       <c r="L34" t="n">
-        <v>15.71459410134634</v>
+        <v>15.71459410134633</v>
       </c>
       <c r="M34" t="n">
         <v>16.56883613119205</v>
@@ -33594,22 +33594,22 @@
         <v>14.94010695167744</v>
       </c>
       <c r="P34" t="n">
-        <v>12.78384248039083</v>
+        <v>12.78384248039082</v>
       </c>
       <c r="Q34" t="n">
-        <v>8.850869895285625</v>
+        <v>8.850869895285623</v>
       </c>
       <c r="R34" t="n">
-        <v>4.752622136801942</v>
+        <v>4.752622136801941</v>
       </c>
       <c r="S34" t="n">
         <v>1.842049461433344</v>
       </c>
       <c r="T34" t="n">
-        <v>0.4516240202783892</v>
+        <v>0.451624020278389</v>
       </c>
       <c r="U34" t="n">
-        <v>0.005765413024830508</v>
+        <v>0.005765413024830506</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,34 +33646,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2356383212828545</v>
+        <v>0.2356383212828544</v>
       </c>
       <c r="H35" t="n">
         <v>2.413230957838034</v>
       </c>
       <c r="I35" t="n">
-        <v>9.084446381257257</v>
+        <v>9.084446381257255</v>
       </c>
       <c r="J35" t="n">
-        <v>19.99950797098069</v>
+        <v>19.99950797098068</v>
       </c>
       <c r="K35" t="n">
-        <v>29.97407811088393</v>
+        <v>29.97407811088392</v>
       </c>
       <c r="L35" t="n">
-        <v>37.18549438584409</v>
+        <v>37.18549438584408</v>
       </c>
       <c r="M35" t="n">
         <v>41.37602738195805</v>
       </c>
       <c r="N35" t="n">
-        <v>42.04553476230297</v>
+        <v>42.04553476230296</v>
       </c>
       <c r="O35" t="n">
-        <v>39.70240620504658</v>
+        <v>39.70240620504657</v>
       </c>
       <c r="P35" t="n">
-        <v>33.88508514837611</v>
+        <v>33.8850851483761</v>
       </c>
       <c r="Q35" t="n">
         <v>25.44628776743387</v>
@@ -33682,7 +33682,7 @@
         <v>14.80191569928412</v>
       </c>
       <c r="S35" t="n">
-        <v>5.369608246233052</v>
+        <v>5.369608246233051</v>
       </c>
       <c r="T35" t="n">
         <v>1.031506751415696</v>
@@ -33728,10 +33728,10 @@
         <v>0.1260776169014821</v>
       </c>
       <c r="H36" t="n">
-        <v>1.21764435270642</v>
+        <v>1.217644352706419</v>
       </c>
       <c r="I36" t="n">
-        <v>4.340830231037871</v>
+        <v>4.34083023103787</v>
       </c>
       <c r="J36" t="n">
         <v>11.91156993717029</v>
@@ -33743,31 +33743,31 @@
         <v>27.37487905573628</v>
       </c>
       <c r="M36" t="n">
-        <v>31.945192668415</v>
+        <v>31.94519266841499</v>
       </c>
       <c r="N36" t="n">
-        <v>32.79068686246048</v>
+        <v>32.79068686246046</v>
       </c>
       <c r="O36" t="n">
         <v>29.99707229848552</v>
       </c>
       <c r="P36" t="n">
-        <v>24.07529510814355</v>
+        <v>24.07529510814354</v>
       </c>
       <c r="Q36" t="n">
         <v>16.0936972030734</v>
       </c>
       <c r="R36" t="n">
-        <v>7.827871687970971</v>
+        <v>7.827871687970969</v>
       </c>
       <c r="S36" t="n">
         <v>2.341836436744633</v>
       </c>
       <c r="T36" t="n">
-        <v>0.5081812716336053</v>
+        <v>0.5081812716336052</v>
       </c>
       <c r="U36" t="n">
-        <v>0.008294580059308037</v>
+        <v>0.008294580059308035</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,19 +33807,19 @@
         <v>0.1056992387885592</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9397623230473724</v>
+        <v>0.9397623230473722</v>
       </c>
       <c r="I37" t="n">
-        <v>3.178664381023217</v>
+        <v>3.178664381023216</v>
       </c>
       <c r="J37" t="n">
-        <v>7.472936182351134</v>
+        <v>7.472936182351132</v>
       </c>
       <c r="K37" t="n">
         <v>12.28032974288896</v>
       </c>
       <c r="L37" t="n">
-        <v>15.71459410134634</v>
+        <v>15.71459410134633</v>
       </c>
       <c r="M37" t="n">
         <v>16.56883613119205</v>
@@ -33831,22 +33831,22 @@
         <v>14.94010695167744</v>
       </c>
       <c r="P37" t="n">
-        <v>12.78384248039083</v>
+        <v>12.78384248039082</v>
       </c>
       <c r="Q37" t="n">
-        <v>8.850869895285625</v>
+        <v>8.850869895285623</v>
       </c>
       <c r="R37" t="n">
-        <v>4.752622136801942</v>
+        <v>4.752622136801941</v>
       </c>
       <c r="S37" t="n">
         <v>1.842049461433344</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4516240202783892</v>
+        <v>0.451624020278389</v>
       </c>
       <c r="U37" t="n">
-        <v>0.005765413024830508</v>
+        <v>0.005765413024830506</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34702,13 +34702,13 @@
         <v>60.30703862039058</v>
       </c>
       <c r="L2" t="n">
+        <v>57.87039059532429</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>60.30703862039058</v>
-      </c>
-      <c r="M2" t="n">
-        <v>57.87039059532429</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>60.30703862039058</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>60.30703862039058</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>57.87039059532429</v>
       </c>
       <c r="O3" t="n">
-        <v>57.87039059532429</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,16 +34942,16 @@
         <v>60.30703862039058</v>
       </c>
       <c r="M5" t="n">
-        <v>57.87039059532429</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>57.8703905953243</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,13 +35018,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>57.87039059532428</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>57.87039059532428</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>60.30703862039058</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>57.87039059532428</v>
       </c>
       <c r="L8" t="n">
         <v>60.30703862039058</v>
       </c>
       <c r="M8" t="n">
-        <v>57.87039059532429</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="N8" t="n">
         <v>60.30703862039058</v>
       </c>
       <c r="O8" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>57.87039059532428</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="O9" t="n">
         <v>60.30703862039058</v>
       </c>
       <c r="P9" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>60.30703862039058</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>8.050218616368173</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="L11" t="n">
         <v>60.30703862039058</v>
@@ -35419,16 +35419,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>60.30703862039058</v>
       </c>
       <c r="P11" t="n">
-        <v>57.8703905953243</v>
+        <v>34.36458342606703</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>15.45558855288907</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>60.30703862039058</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="M12" t="n">
-        <v>46.70541198441185</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>46.70541198441187</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>60.30703862039058</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>60.30703862039058</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,16 +35653,16 @@
         <v>60.30703862039058</v>
       </c>
       <c r="M14" t="n">
+        <v>60.30703862039058</v>
+      </c>
+      <c r="N14" t="n">
         <v>34.36458342606703</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>60.30703862039058</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>15.45558855288907</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>11.16497861091243</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>46.70541198441185</v>
+      </c>
+      <c r="N15" t="n">
         <v>60.30703862039058</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>60.30703862039058</v>
-      </c>
-      <c r="N15" t="n">
-        <v>57.87039059532429</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35887,16 +35887,16 @@
         <v>60.30703862039058</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>60.30703862039058</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
+        <v>60.30703862039058</v>
+      </c>
+      <c r="O17" t="n">
         <v>34.36458342606703</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>60.30703862039058</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>57.87039059532428</v>
+      </c>
+      <c r="O18" t="n">
         <v>60.30703862039058</v>
-      </c>
-      <c r="L18" t="n">
-        <v>57.87039059532429</v>
-      </c>
-      <c r="M18" t="n">
-        <v>60.30703862039058</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>60.30703862039058</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>60.30703862039058</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>11.16497861091243</v>
       </c>
       <c r="K21" t="n">
         <v>146.9825683077892</v>
@@ -36206,16 +36206,16 @@
         <v>259.6608445793213</v>
       </c>
       <c r="M21" t="n">
-        <v>303.564719702157</v>
+        <v>303.5647197021571</v>
       </c>
       <c r="N21" t="n">
-        <v>210.5223578885029</v>
+        <v>303.5647197021571</v>
       </c>
       <c r="O21" t="n">
-        <v>281.2631471307706</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>177.0558067062039</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>11.16497861091243</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>146.9825683077892</v>
       </c>
       <c r="L24" t="n">
-        <v>259.6608445793213</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>137.7762912516292</v>
+        <v>250.4545675231614</v>
       </c>
       <c r="N24" t="n">
-        <v>303.564719702157</v>
+        <v>303.5647197021571</v>
       </c>
       <c r="O24" t="n">
         <v>281.2631471307706</v>
@@ -36674,25 +36674,25 @@
         <v>11.16497861091243</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>146.9825683077892</v>
       </c>
       <c r="L27" t="n">
-        <v>7.683205275892426</v>
+        <v>259.6608445793213</v>
       </c>
       <c r="M27" t="n">
-        <v>303.564719702157</v>
+        <v>303.5647197021571</v>
       </c>
       <c r="N27" t="n">
-        <v>303.564719702157</v>
+        <v>272.0568700746107</v>
       </c>
       <c r="O27" t="n">
-        <v>281.2631471307706</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>208.5636563337505</v>
       </c>
       <c r="Q27" t="n">
-        <v>86.18921085290098</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>11.16497861091243</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>146.9825683077892</v>
       </c>
       <c r="L30" t="n">
-        <v>216.2468616096428</v>
+        <v>259.6608445793213</v>
       </c>
       <c r="M30" t="n">
-        <v>303.564719702157</v>
+        <v>294.358442645997</v>
       </c>
       <c r="N30" t="n">
-        <v>303.564719702157</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>281.2631471307706</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>208.5636563337505</v>
       </c>
       <c r="Q30" t="n">
-        <v>86.18921085290098</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>8.050218616368173</v>
+        <v>8.050218616368166</v>
       </c>
       <c r="K32" t="n">
         <v>134.0296396370681</v>
@@ -37087,7 +37087,7 @@
         <v>124.4507975645892</v>
       </c>
       <c r="Q32" t="n">
-        <v>15.45558855288907</v>
+        <v>15.45558855288906</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>11.16497861091243</v>
       </c>
       <c r="K33" t="n">
         <v>146.9825683077892</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>259.6608445793213</v>
       </c>
       <c r="M33" t="n">
-        <v>303.564719702157</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>303.564719702157</v>
+        <v>294.358442645997</v>
       </c>
       <c r="O33" t="n">
         <v>281.2631471307706</v>
       </c>
       <c r="P33" t="n">
-        <v>166.618482765667</v>
+        <v>208.5636563337505</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>43.30461936166247</v>
       </c>
       <c r="M34" t="n">
-        <v>56.15271309303265</v>
+        <v>56.15271309303264</v>
       </c>
       <c r="N34" t="n">
         <v>60.30703862039057</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>8.050218616368173</v>
+        <v>8.050218616368166</v>
       </c>
       <c r="K35" t="n">
         <v>134.0296396370681</v>
@@ -37324,7 +37324,7 @@
         <v>124.4507975645892</v>
       </c>
       <c r="Q35" t="n">
-        <v>15.45558855288907</v>
+        <v>15.45558855288906</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>11.16497861091243</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>259.6608445793213</v>
       </c>
       <c r="M36" t="n">
-        <v>303.564719702157</v>
+        <v>51.58708039872822</v>
       </c>
       <c r="N36" t="n">
         <v>303.564719702157</v>
@@ -37400,10 +37400,10 @@
         <v>281.2631471307706</v>
       </c>
       <c r="P36" t="n">
-        <v>53.94020649413496</v>
+        <v>208.5636563337505</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>86.18921085290097</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>43.30461936166247</v>
       </c>
       <c r="M37" t="n">
-        <v>56.15271309303265</v>
+        <v>56.15271309303264</v>
       </c>
       <c r="N37" t="n">
         <v>60.30703862039057</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>8.050218616368166</v>
+        <v>8.050218616368131</v>
       </c>
       <c r="K38" t="n">
         <v>134.0296396370681</v>
@@ -37625,16 +37625,16 @@
         <v>146.9825683077892</v>
       </c>
       <c r="L39" t="n">
-        <v>259.6608445793213</v>
+        <v>239.3179735626872</v>
       </c>
       <c r="M39" t="n">
         <v>303.564719702157</v>
       </c>
       <c r="N39" t="n">
-        <v>1.95870155475239</v>
+        <v>303.564719702157</v>
       </c>
       <c r="O39" t="n">
-        <v>281.2631471307706</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>208.5636563337505</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>8.050218616368166</v>
+        <v>8.050218616368131</v>
       </c>
       <c r="K41" t="n">
         <v>134.0296396370681</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>11.16497861091243</v>
       </c>
       <c r="K42" t="n">
         <v>146.9825683077892</v>
@@ -37871,7 +37871,7 @@
         <v>303.564719702157</v>
       </c>
       <c r="O42" t="n">
-        <v>188.2207853171165</v>
+        <v>177.0558067062039</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,25 +38014,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>8.050218616368166</v>
       </c>
       <c r="K44" t="n">
+        <v>49.82017197895601</v>
+      </c>
+      <c r="L44" t="n">
         <v>60.30703862039044</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
       <c r="M44" t="n">
-        <v>57.87039059532417</v>
+        <v>60.30703862039044</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>60.30703862039044</v>
       </c>
       <c r="O44" t="n">
-        <v>60.30703862039044</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>60.30703862039044</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38105,16 +38105,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>57.87039059532417</v>
-      </c>
-      <c r="O45" t="n">
-        <v>60.30703862039044</v>
       </c>
       <c r="P45" t="n">
         <v>60.30703862039044</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>60.30703862039044</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>56.15271309303264</v>
       </c>
       <c r="N46" t="n">
-        <v>60.30703862039044</v>
+        <v>60.30703862039057</v>
       </c>
       <c r="O46" t="n">
         <v>39.52523486571712</v>
